--- a/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler.xlsx
+++ b/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\Reguler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A427873F-6AFC-4D43-8BD7-2B3375621474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D97527-D62F-4791-8414-799CE9BF768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42621251-7584-4841-8D22-06C617E2C04A}"/>
+    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{42621251-7584-4841-8D22-06C617E2C04A}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="292">
   <si>
     <t>NO</t>
   </si>
@@ -703,9 +703,6 @@
     <t>7 November 2025</t>
   </si>
   <si>
-    <t>910 / 11 / VIII / 2025</t>
-  </si>
-  <si>
     <t>911 / 11 / VIII / 2025</t>
   </si>
   <si>
@@ -785,21 +782,6 @@
   </si>
   <si>
     <t>942 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>922 / 11 / X / 2025</t>
-  </si>
-  <si>
-    <t>926 / 11 / X / 2025</t>
-  </si>
-  <si>
-    <t>934 / 11 / XI / 2025</t>
-  </si>
-  <si>
-    <t>935 / 11 / X / 2025</t>
-  </si>
-  <si>
-    <t>937 / 11 / X/ 2025</t>
   </si>
   <si>
     <t>Judul Inggris</t>
@@ -905,6 +887,30 @@
   </si>
   <si>
     <t>Factors Associated with Mothers' Interest in Choosing Contraceptive Methods at Batu X Public Health Center</t>
+  </si>
+  <si>
+    <t>922 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>926 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>934 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>935 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>937 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>943 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>r.meta</t>
+  </si>
+  <si>
+    <t>9110/ 11 / VIII / 2025</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1098,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,28 +1210,38 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,19 +1261,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1579,13 +1582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4AA576-8EFE-4868-8208-535A5DC1B951}">
-  <dimension ref="A1:JY35"/>
+  <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1598,7 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="28" customWidth="1"/>
     <col min="5" max="6" width="22.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="59" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="43" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="7.140625" customWidth="1"/>
@@ -1721,269 +1724,269 @@
     <col min="282" max="282" width="19" customWidth="1"/>
     <col min="283" max="283" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="284" max="284" width="242.42578125" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="224.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="224.140625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41" t="s">
+      <c r="H1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41" t="s">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="45" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45" t="s">
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45" t="s">
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45" t="s">
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45" t="s">
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45" t="s">
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45" t="s">
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45"/>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45" t="s">
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45"/>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45"/>
-      <c r="CE1" s="44" t="s">
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="49"/>
+      <c r="CC1" s="49"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="CF1" s="44"/>
-      <c r="CG1" s="44"/>
-      <c r="CH1" s="44"/>
-      <c r="CI1" s="44"/>
-      <c r="CJ1" s="44" t="s">
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
+      <c r="CJ1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="CK1" s="44"/>
-      <c r="CL1" s="44"/>
-      <c r="CM1" s="44"/>
-      <c r="CN1" s="44"/>
-      <c r="CO1" s="44" t="s">
+      <c r="CK1" s="50"/>
+      <c r="CL1" s="50"/>
+      <c r="CM1" s="50"/>
+      <c r="CN1" s="50"/>
+      <c r="CO1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="CP1" s="44"/>
-      <c r="CQ1" s="44"/>
-      <c r="CR1" s="44"/>
-      <c r="CS1" s="44"/>
-      <c r="CT1" s="44" t="s">
+      <c r="CP1" s="50"/>
+      <c r="CQ1" s="50"/>
+      <c r="CR1" s="50"/>
+      <c r="CS1" s="50"/>
+      <c r="CT1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="CU1" s="44"/>
-      <c r="CV1" s="44"/>
-      <c r="CW1" s="44"/>
-      <c r="CX1" s="44"/>
-      <c r="CY1" s="44" t="s">
+      <c r="CU1" s="50"/>
+      <c r="CV1" s="50"/>
+      <c r="CW1" s="50"/>
+      <c r="CX1" s="50"/>
+      <c r="CY1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="CZ1" s="44"/>
-      <c r="DA1" s="44"/>
-      <c r="DB1" s="44"/>
-      <c r="DC1" s="44"/>
-      <c r="DD1" s="44" t="s">
+      <c r="CZ1" s="50"/>
+      <c r="DA1" s="50"/>
+      <c r="DB1" s="50"/>
+      <c r="DC1" s="50"/>
+      <c r="DD1" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="DE1" s="44"/>
-      <c r="DF1" s="44"/>
-      <c r="DG1" s="44"/>
-      <c r="DH1" s="44"/>
-      <c r="DI1" s="44" t="s">
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="50"/>
+      <c r="DG1" s="50"/>
+      <c r="DH1" s="50"/>
+      <c r="DI1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="DJ1" s="44"/>
-      <c r="DK1" s="44"/>
-      <c r="DL1" s="44"/>
-      <c r="DM1" s="44"/>
-      <c r="DN1" s="44" t="s">
+      <c r="DJ1" s="50"/>
+      <c r="DK1" s="50"/>
+      <c r="DL1" s="50"/>
+      <c r="DM1" s="50"/>
+      <c r="DN1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="DO1" s="44"/>
-      <c r="DP1" s="44"/>
-      <c r="DQ1" s="44"/>
-      <c r="DR1" s="44"/>
-      <c r="DS1" s="46" t="s">
+      <c r="DO1" s="50"/>
+      <c r="DP1" s="50"/>
+      <c r="DQ1" s="50"/>
+      <c r="DR1" s="50"/>
+      <c r="DS1" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="DT1" s="46"/>
-      <c r="DU1" s="46"/>
-      <c r="DV1" s="46"/>
-      <c r="DW1" s="46"/>
-      <c r="DX1" s="46" t="s">
+      <c r="DT1" s="48"/>
+      <c r="DU1" s="48"/>
+      <c r="DV1" s="48"/>
+      <c r="DW1" s="48"/>
+      <c r="DX1" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="DY1" s="46"/>
-      <c r="DZ1" s="46"/>
-      <c r="EA1" s="46"/>
-      <c r="EB1" s="46"/>
-      <c r="EC1" s="46" t="s">
+      <c r="DY1" s="48"/>
+      <c r="DZ1" s="48"/>
+      <c r="EA1" s="48"/>
+      <c r="EB1" s="48"/>
+      <c r="EC1" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="ED1" s="46"/>
-      <c r="EE1" s="46"/>
-      <c r="EF1" s="46"/>
-      <c r="EG1" s="46"/>
-      <c r="EH1" s="46" t="s">
+      <c r="ED1" s="48"/>
+      <c r="EE1" s="48"/>
+      <c r="EF1" s="48"/>
+      <c r="EG1" s="48"/>
+      <c r="EH1" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="EI1" s="46"/>
-      <c r="EJ1" s="46"/>
-      <c r="EK1" s="46"/>
-      <c r="EL1" s="46"/>
-      <c r="EM1" s="46" t="s">
+      <c r="EI1" s="48"/>
+      <c r="EJ1" s="48"/>
+      <c r="EK1" s="48"/>
+      <c r="EL1" s="48"/>
+      <c r="EM1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="EN1" s="46"/>
-      <c r="EO1" s="46"/>
-      <c r="EP1" s="46"/>
-      <c r="EQ1" s="46"/>
-      <c r="ER1" s="46" t="s">
+      <c r="EN1" s="48"/>
+      <c r="EO1" s="48"/>
+      <c r="EP1" s="48"/>
+      <c r="EQ1" s="48"/>
+      <c r="ER1" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="ES1" s="46"/>
-      <c r="ET1" s="46"/>
-      <c r="EU1" s="46"/>
-      <c r="EV1" s="46"/>
-      <c r="EW1" s="46" t="s">
+      <c r="ES1" s="48"/>
+      <c r="ET1" s="48"/>
+      <c r="EU1" s="48"/>
+      <c r="EV1" s="48"/>
+      <c r="EW1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="EX1" s="46"/>
-      <c r="EY1" s="46"/>
-      <c r="EZ1" s="46"/>
-      <c r="FA1" s="46"/>
-      <c r="FB1" s="42" t="s">
+      <c r="EX1" s="48"/>
+      <c r="EY1" s="48"/>
+      <c r="EZ1" s="48"/>
+      <c r="FA1" s="48"/>
+      <c r="FB1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="FC1" s="42"/>
-      <c r="FD1" s="42"/>
-      <c r="FE1" s="42"/>
-      <c r="FF1" s="42"/>
-      <c r="FG1" s="42" t="s">
+      <c r="FC1" s="46"/>
+      <c r="FD1" s="46"/>
+      <c r="FE1" s="46"/>
+      <c r="FF1" s="46"/>
+      <c r="FG1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="FH1" s="42"/>
-      <c r="FI1" s="42"/>
-      <c r="FJ1" s="42"/>
-      <c r="FK1" s="42"/>
-      <c r="FL1" s="42" t="s">
+      <c r="FH1" s="46"/>
+      <c r="FI1" s="46"/>
+      <c r="FJ1" s="46"/>
+      <c r="FK1" s="46"/>
+      <c r="FL1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="FM1" s="42"/>
-      <c r="FN1" s="42"/>
-      <c r="FO1" s="42"/>
-      <c r="FP1" s="42"/>
-      <c r="FQ1" s="42" t="s">
+      <c r="FM1" s="46"/>
+      <c r="FN1" s="46"/>
+      <c r="FO1" s="46"/>
+      <c r="FP1" s="46"/>
+      <c r="FQ1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="FR1" s="42"/>
-      <c r="FS1" s="42"/>
-      <c r="FT1" s="42"/>
-      <c r="FU1" s="42"/>
+      <c r="FR1" s="46"/>
+      <c r="FS1" s="46"/>
+      <c r="FT1" s="46"/>
+      <c r="FU1" s="46"/>
       <c r="FV1" s="47" t="s">
         <v>88</v>
       </c>
@@ -1991,55 +1994,55 @@
       <c r="FX1" s="47"/>
       <c r="FY1" s="47"/>
       <c r="FZ1" s="47"/>
-      <c r="GA1" s="42" t="s">
+      <c r="GA1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="GB1" s="42"/>
-      <c r="GC1" s="42"/>
-      <c r="GD1" s="42"/>
-      <c r="GE1" s="42"/>
-      <c r="GF1" s="42" t="s">
+      <c r="GB1" s="46"/>
+      <c r="GC1" s="46"/>
+      <c r="GD1" s="46"/>
+      <c r="GE1" s="46"/>
+      <c r="GF1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="GG1" s="42"/>
-      <c r="GH1" s="42"/>
-      <c r="GI1" s="42"/>
-      <c r="GJ1" s="42"/>
-      <c r="GK1" s="42" t="s">
+      <c r="GG1" s="46"/>
+      <c r="GH1" s="46"/>
+      <c r="GI1" s="46"/>
+      <c r="GJ1" s="46"/>
+      <c r="GK1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="GL1" s="42"/>
-      <c r="GM1" s="42"/>
-      <c r="GN1" s="42"/>
-      <c r="GO1" s="42"/>
-      <c r="GP1" s="42" t="s">
+      <c r="GL1" s="46"/>
+      <c r="GM1" s="46"/>
+      <c r="GN1" s="46"/>
+      <c r="GO1" s="46"/>
+      <c r="GP1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="GQ1" s="42"/>
-      <c r="GR1" s="42"/>
-      <c r="GS1" s="42"/>
-      <c r="GT1" s="42"/>
-      <c r="GU1" s="42" t="s">
+      <c r="GQ1" s="46"/>
+      <c r="GR1" s="46"/>
+      <c r="GS1" s="46"/>
+      <c r="GT1" s="46"/>
+      <c r="GU1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="GV1" s="42"/>
-      <c r="GW1" s="42"/>
-      <c r="GX1" s="42"/>
-      <c r="GY1" s="42"/>
-      <c r="GZ1" s="42" t="s">
+      <c r="GV1" s="46"/>
+      <c r="GW1" s="46"/>
+      <c r="GX1" s="46"/>
+      <c r="GY1" s="46"/>
+      <c r="GZ1" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="HA1" s="42"/>
-      <c r="HB1" s="42"/>
-      <c r="HC1" s="42"/>
-      <c r="HD1" s="42"/>
-      <c r="HE1" s="42" t="s">
+      <c r="HA1" s="46"/>
+      <c r="HB1" s="46"/>
+      <c r="HC1" s="46"/>
+      <c r="HD1" s="46"/>
+      <c r="HE1" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="HF1" s="42"/>
-      <c r="HG1" s="42"/>
-      <c r="HH1" s="42"/>
-      <c r="HI1" s="42"/>
+      <c r="HF1" s="46"/>
+      <c r="HG1" s="46"/>
+      <c r="HH1" s="46"/>
+      <c r="HI1" s="46"/>
       <c r="HJ1" s="47" t="s">
         <v>96</v>
       </c>
@@ -2047,41 +2050,41 @@
       <c r="HL1" s="47"/>
       <c r="HM1" s="47"/>
       <c r="HN1" s="47"/>
-      <c r="HO1" s="42" t="s">
+      <c r="HO1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="HP1" s="42"/>
-      <c r="HQ1" s="42"/>
-      <c r="HR1" s="42"/>
-      <c r="HS1" s="42"/>
-      <c r="HT1" s="42" t="s">
+      <c r="HP1" s="46"/>
+      <c r="HQ1" s="46"/>
+      <c r="HR1" s="46"/>
+      <c r="HS1" s="46"/>
+      <c r="HT1" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="HU1" s="42"/>
-      <c r="HV1" s="42"/>
-      <c r="HW1" s="42"/>
-      <c r="HX1" s="42"/>
-      <c r="HY1" s="42" t="s">
+      <c r="HU1" s="46"/>
+      <c r="HV1" s="46"/>
+      <c r="HW1" s="46"/>
+      <c r="HX1" s="46"/>
+      <c r="HY1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="HZ1" s="42"/>
-      <c r="IA1" s="42"/>
-      <c r="IB1" s="42"/>
-      <c r="IC1" s="42"/>
-      <c r="ID1" s="42" t="s">
+      <c r="HZ1" s="46"/>
+      <c r="IA1" s="46"/>
+      <c r="IB1" s="46"/>
+      <c r="IC1" s="46"/>
+      <c r="ID1" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="IE1" s="42"/>
-      <c r="IF1" s="42"/>
-      <c r="IG1" s="42"/>
-      <c r="IH1" s="42"/>
-      <c r="II1" s="42" t="s">
+      <c r="IE1" s="46"/>
+      <c r="IF1" s="46"/>
+      <c r="IG1" s="46"/>
+      <c r="IH1" s="46"/>
+      <c r="II1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="IJ1" s="42"/>
-      <c r="IK1" s="42"/>
-      <c r="IL1" s="42"/>
-      <c r="IM1" s="42"/>
+      <c r="IJ1" s="46"/>
+      <c r="IK1" s="46"/>
+      <c r="IL1" s="46"/>
+      <c r="IM1" s="46"/>
       <c r="IN1" s="47" t="s">
         <v>102</v>
       </c>
@@ -2089,80 +2092,80 @@
       <c r="IP1" s="47"/>
       <c r="IQ1" s="47"/>
       <c r="IR1" s="47"/>
-      <c r="IS1" s="42" t="s">
+      <c r="IS1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="IT1" s="42"/>
-      <c r="IU1" s="42"/>
-      <c r="IV1" s="42"/>
-      <c r="IW1" s="42"/>
-      <c r="IX1" s="42" t="s">
+      <c r="IT1" s="46"/>
+      <c r="IU1" s="46"/>
+      <c r="IV1" s="46"/>
+      <c r="IW1" s="46"/>
+      <c r="IX1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="IY1" s="42"/>
-      <c r="IZ1" s="42"/>
-      <c r="JA1" s="42"/>
-      <c r="JB1" s="42"/>
-      <c r="JC1" s="42" t="s">
+      <c r="IY1" s="46"/>
+      <c r="IZ1" s="46"/>
+      <c r="JA1" s="46"/>
+      <c r="JB1" s="46"/>
+      <c r="JC1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="JD1" s="42"/>
-      <c r="JE1" s="42" t="s">
+      <c r="JD1" s="46"/>
+      <c r="JE1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="JF1" s="42"/>
-      <c r="JG1" s="42" t="s">
+      <c r="JF1" s="46"/>
+      <c r="JG1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="JH1" s="42"/>
-      <c r="JI1" s="42" t="s">
+      <c r="JH1" s="46"/>
+      <c r="JI1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="JJ1" s="42"/>
-      <c r="JK1" s="42" t="s">
+      <c r="JJ1" s="46"/>
+      <c r="JK1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="JL1" s="42"/>
-      <c r="JM1" s="42" t="s">
+      <c r="JL1" s="46"/>
+      <c r="JM1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="JN1" s="42"/>
-      <c r="JO1" s="48" t="s">
+      <c r="JN1" s="46"/>
+      <c r="JO1" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="JP1" s="48"/>
-      <c r="JQ1" s="48" t="s">
+      <c r="JP1" s="45"/>
+      <c r="JQ1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="JR1" s="48"/>
-      <c r="JS1" s="48" t="s">
+      <c r="JR1" s="45"/>
+      <c r="JS1" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="JT1" s="48"/>
-      <c r="JU1" s="42" t="s">
+      <c r="JT1" s="45"/>
+      <c r="JU1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="JV1" s="48" t="s">
+      <c r="JV1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="JW1" s="48" t="s">
+      <c r="JW1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="JX1" s="48" t="s">
+      <c r="JX1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="JY1" s="57" t="s">
-        <v>255</v>
+      <c r="JY1" s="44" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
@@ -2982,14 +2985,14 @@
       <c r="JT2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="JU2" s="42"/>
-      <c r="JV2" s="48"/>
-      <c r="JW2" s="48"/>
-      <c r="JX2" s="48"/>
-      <c r="JY2" s="57"/>
+      <c r="JU2" s="46"/>
+      <c r="JV2" s="45"/>
+      <c r="JW2" s="45"/>
+      <c r="JX2" s="45"/>
+      <c r="JY2" s="44"/>
     </row>
     <row r="3" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -4000,11 +4003,11 @@
         <v>186</v>
       </c>
       <c r="JY3" s="23" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -5015,11 +5018,11 @@
         <v>187</v>
       </c>
       <c r="JY4" s="23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -6030,11 +6033,11 @@
         <v>188</v>
       </c>
       <c r="JY5" s="23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -7045,11 +7048,11 @@
         <v>189</v>
       </c>
       <c r="JY6" s="23" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -8060,11 +8063,11 @@
         <v>204</v>
       </c>
       <c r="JY7" s="23" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -9075,11 +9078,11 @@
         <v>190</v>
       </c>
       <c r="JY8" s="23" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -10090,11 +10093,11 @@
         <v>191</v>
       </c>
       <c r="JY9" s="23" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -11105,11 +11108,11 @@
         <v>192</v>
       </c>
       <c r="JY10" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -12120,11 +12123,11 @@
         <v>205</v>
       </c>
       <c r="JY11" s="23" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -13135,11 +13138,11 @@
         <v>206</v>
       </c>
       <c r="JY12" s="23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -14150,11 +14153,11 @@
         <v>193</v>
       </c>
       <c r="JY13" s="23" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -14173,7 +14176,7 @@
         <v>219</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="H14" s="9">
         <v>83.75</v>
@@ -15165,11 +15168,11 @@
         <v>202</v>
       </c>
       <c r="JY14" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -15188,7 +15191,7 @@
         <v>220</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="H15" s="9">
         <v>88.100000000000009</v>
@@ -16180,11 +16183,11 @@
         <v>207</v>
       </c>
       <c r="JY15" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -17195,11 +17198,11 @@
         <v>194</v>
       </c>
       <c r="JY16" s="23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -18210,11 +18213,11 @@
         <v>195</v>
       </c>
       <c r="JY17" s="23" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="39" t="s">
@@ -18233,7 +18236,7 @@
         <v>219</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="H18" s="9">
         <v>80.45</v>
@@ -19225,11 +19228,11 @@
         <v>208</v>
       </c>
       <c r="JY18" s="23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -19248,7 +19251,7 @@
         <v>220</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="H19" s="9">
         <v>82.550000000000011</v>
@@ -20240,11 +20243,11 @@
         <v>196</v>
       </c>
       <c r="JY19" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A20" s="55">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -21234,11 +21237,11 @@
         <v>197</v>
       </c>
       <c r="JY20" s="23" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="40" t="s">
@@ -22228,11 +22231,11 @@
         <v>209</v>
       </c>
       <c r="JY21" s="23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A22" s="55">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="40" t="s">
@@ -23222,11 +23225,11 @@
         <v>210</v>
       </c>
       <c r="JY22" s="23" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -24216,11 +24219,11 @@
         <v>198</v>
       </c>
       <c r="JY23" s="23" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A24" s="55">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="39" t="s">
@@ -25210,11 +25213,11 @@
         <v>211</v>
       </c>
       <c r="JY24" s="23" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A25" s="55">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -26204,11 +26207,11 @@
         <v>212</v>
       </c>
       <c r="JY25" s="23" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A26" s="55">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -26227,7 +26230,7 @@
         <v>219</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="H26" s="10">
         <v>79.050000000000011</v>
@@ -27197,11 +27200,11 @@
         <v>199</v>
       </c>
       <c r="JY26" s="23" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="40" t="s">
@@ -27220,7 +27223,7 @@
         <v>221</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="H27" s="10">
         <v>75.900000000000006</v>
@@ -28188,14 +28191,14 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="JX27" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="JY27" s="58" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="JY27" s="42" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A28" s="55">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -28214,7 +28217,7 @@
         <v>220</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H28" s="10">
         <v>80.05</v>
@@ -29185,11 +29188,11 @@
         <v>213</v>
       </c>
       <c r="JY28" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -29208,7 +29211,7 @@
         <v>219</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="H29" s="10">
         <v>85.05</v>
@@ -30179,11 +30182,11 @@
         <v>200</v>
       </c>
       <c r="JY29" s="23" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A30" s="55">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="40" t="s">
@@ -30202,7 +30205,7 @@
         <v>220</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H30" s="10">
         <v>76.7</v>
@@ -31173,11 +31176,11 @@
         <v>214</v>
       </c>
       <c r="JY30" s="23" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -32167,11 +32170,11 @@
         <v>215</v>
       </c>
       <c r="JY31" s="23" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A32" s="55">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="39" t="s">
@@ -33160,11 +33163,11 @@
         <v>216</v>
       </c>
       <c r="JY32" s="23" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A33" s="55">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -34154,11 +34157,11 @@
         <v>217</v>
       </c>
       <c r="JY33" s="23" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A34" s="55">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -35148,11 +35151,11 @@
         <v>218</v>
       </c>
       <c r="JY34" s="23" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A35" s="55">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -35171,7 +35174,7 @@
         <v>219</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="H35" s="10">
         <v>81.25</v>
@@ -36138,44 +36141,56 @@
         <f t="shared" si="156"/>
         <v>Excellent</v>
       </c>
-      <c r="JX35" s="56" t="s">
+      <c r="JX35" s="41" t="s">
         <v>201</v>
       </c>
       <c r="JY35" s="23" t="s">
-        <v>287</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="JY1:JY2"/>
-    <mergeCell ref="JQ1:JR1"/>
-    <mergeCell ref="JS1:JT1"/>
-    <mergeCell ref="JV1:JV2"/>
-    <mergeCell ref="JW1:JW2"/>
-    <mergeCell ref="JX1:JX2"/>
-    <mergeCell ref="JU1:JU2"/>
-    <mergeCell ref="HJ1:HN1"/>
-    <mergeCell ref="HO1:HS1"/>
-    <mergeCell ref="HT1:HX1"/>
-    <mergeCell ref="GF1:GJ1"/>
-    <mergeCell ref="GK1:GO1"/>
-    <mergeCell ref="GP1:GT1"/>
-    <mergeCell ref="GU1:GY1"/>
-    <mergeCell ref="GZ1:HD1"/>
-    <mergeCell ref="HE1:HI1"/>
-    <mergeCell ref="JC1:JD1"/>
-    <mergeCell ref="JE1:JF1"/>
-    <mergeCell ref="HY1:IC1"/>
-    <mergeCell ref="ID1:IH1"/>
-    <mergeCell ref="II1:IM1"/>
-    <mergeCell ref="IN1:IR1"/>
-    <mergeCell ref="IS1:IW1"/>
-    <mergeCell ref="IX1:JB1"/>
-    <mergeCell ref="JG1:JH1"/>
-    <mergeCell ref="JI1:JJ1"/>
-    <mergeCell ref="JK1:JL1"/>
-    <mergeCell ref="JM1:JN1"/>
-    <mergeCell ref="JO1:JP1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="GA1:GE1"/>
     <mergeCell ref="EH1:EL1"/>
     <mergeCell ref="EM1:EQ1"/>
@@ -36186,39 +36201,35 @@
     <mergeCell ref="FL1:FP1"/>
     <mergeCell ref="FQ1:FU1"/>
     <mergeCell ref="FV1:FZ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="JG1:JH1"/>
+    <mergeCell ref="JI1:JJ1"/>
+    <mergeCell ref="JK1:JL1"/>
+    <mergeCell ref="JM1:JN1"/>
+    <mergeCell ref="JO1:JP1"/>
+    <mergeCell ref="JC1:JD1"/>
+    <mergeCell ref="JE1:JF1"/>
+    <mergeCell ref="HY1:IC1"/>
+    <mergeCell ref="ID1:IH1"/>
+    <mergeCell ref="II1:IM1"/>
+    <mergeCell ref="IN1:IR1"/>
+    <mergeCell ref="IS1:IW1"/>
+    <mergeCell ref="IX1:JB1"/>
+    <mergeCell ref="HJ1:HN1"/>
+    <mergeCell ref="HO1:HS1"/>
+    <mergeCell ref="HT1:HX1"/>
+    <mergeCell ref="GF1:GJ1"/>
+    <mergeCell ref="GK1:GO1"/>
+    <mergeCell ref="GP1:GT1"/>
+    <mergeCell ref="GU1:GY1"/>
+    <mergeCell ref="GZ1:HD1"/>
+    <mergeCell ref="HE1:HI1"/>
+    <mergeCell ref="JY1:JY2"/>
+    <mergeCell ref="JQ1:JR1"/>
+    <mergeCell ref="JS1:JT1"/>
+    <mergeCell ref="JV1:JV2"/>
+    <mergeCell ref="JW1:JW2"/>
+    <mergeCell ref="JX1:JX2"/>
+    <mergeCell ref="JU1:JU2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36260,171 +36271,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="49" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="49" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="49" t="s">
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="52" t="s">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="49" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="49" t="s">
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="49" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="49" t="s">
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="52" t="s">
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="49" t="s">
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="49" t="s">
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="51"/>
-      <c r="BT1" s="42" t="s">
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="54"/>
+      <c r="BR1" s="54"/>
+      <c r="BS1" s="55"/>
+      <c r="BT1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="BU1" s="42"/>
-      <c r="BV1" s="42" t="s">
+      <c r="BU1" s="46"/>
+      <c r="BV1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="BW1" s="42"/>
-      <c r="BX1" s="42" t="s">
+      <c r="BW1" s="46"/>
+      <c r="BX1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42" t="s">
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="42" t="s">
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="CC1" s="42"/>
-      <c r="CD1" s="42" t="s">
+      <c r="CC1" s="46"/>
+      <c r="CD1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="CE1" s="42"/>
-      <c r="CF1" s="48" t="s">
+      <c r="CE1" s="46"/>
+      <c r="CF1" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="CG1" s="48"/>
-      <c r="CH1" s="48" t="s">
+      <c r="CG1" s="45"/>
+      <c r="CH1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="CI1" s="48"/>
-      <c r="CJ1" s="48" t="s">
+      <c r="CI1" s="45"/>
+      <c r="CJ1" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="CK1" s="48"/>
-      <c r="CL1" s="42" t="s">
+      <c r="CK1" s="45"/>
+      <c r="CL1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="CM1" s="48" t="s">
+      <c r="CM1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="CN1" s="48" t="s">
+      <c r="CN1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="CO1" s="48" t="s">
+      <c r="CO1" s="45" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
@@ -36674,10 +36685,10 @@
       <c r="CK2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="CL2" s="42"/>
-      <c r="CM2" s="48"/>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="48"/>
+      <c r="CL2" s="46"/>
+      <c r="CM2" s="45"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="45"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -48851,14 +48862,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="CM1:CM2"/>
-    <mergeCell ref="CN1:CN2"/>
-    <mergeCell ref="CO1:CO2"/>
-    <mergeCell ref="CD1:CE1"/>
-    <mergeCell ref="CF1:CG1"/>
-    <mergeCell ref="CH1:CI1"/>
-    <mergeCell ref="CJ1:CK1"/>
-    <mergeCell ref="CL1:CL2"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="CB1:CC1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -48871,18 +48886,14 @@
     <mergeCell ref="BV1:BW1"/>
     <mergeCell ref="BX1:BY1"/>
     <mergeCell ref="BZ1:CA1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="CM1:CM2"/>
+    <mergeCell ref="CN1:CN2"/>
+    <mergeCell ref="CO1:CO2"/>
+    <mergeCell ref="CD1:CE1"/>
+    <mergeCell ref="CF1:CG1"/>
+    <mergeCell ref="CH1:CI1"/>
+    <mergeCell ref="CJ1:CK1"/>
+    <mergeCell ref="CL1:CL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler.xlsx
+++ b/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\Reguler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D97527-D62F-4791-8414-799CE9BF768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17320B3F-56BF-4414-A02A-7F22A41236FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{42621251-7584-4841-8D22-06C617E2C04A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="293">
   <si>
     <t>NO</t>
   </si>
@@ -912,6 +912,9 @@
   <si>
     <t>9110/ 11 / VIII / 2025</t>
   </si>
+  <si>
+    <t>M.Alif Amarul Syofiadi</t>
+  </si>
 </sst>
 </file>
 
@@ -1217,31 +1220,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,10 +1588,10 @@
   <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,444 +1731,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51" t="s">
+      <c r="H1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51" t="s">
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51" t="s">
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="49" t="s">
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49" t="s">
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49" t="s">
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49" t="s">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49" t="s">
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49" t="s">
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49" t="s">
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="48"/>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49" t="s">
+      <c r="BV1" s="48"/>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="48"/>
+      <c r="BZ1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="49"/>
-      <c r="CD1" s="49"/>
-      <c r="CE1" s="50" t="s">
+      <c r="CA1" s="48"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="48"/>
+      <c r="CE1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
-      <c r="CJ1" s="50" t="s">
+      <c r="CF1" s="47"/>
+      <c r="CG1" s="47"/>
+      <c r="CH1" s="47"/>
+      <c r="CI1" s="47"/>
+      <c r="CJ1" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="CK1" s="50"/>
-      <c r="CL1" s="50"/>
-      <c r="CM1" s="50"/>
-      <c r="CN1" s="50"/>
-      <c r="CO1" s="50" t="s">
+      <c r="CK1" s="47"/>
+      <c r="CL1" s="47"/>
+      <c r="CM1" s="47"/>
+      <c r="CN1" s="47"/>
+      <c r="CO1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="CP1" s="50"/>
-      <c r="CQ1" s="50"/>
-      <c r="CR1" s="50"/>
-      <c r="CS1" s="50"/>
-      <c r="CT1" s="50" t="s">
+      <c r="CP1" s="47"/>
+      <c r="CQ1" s="47"/>
+      <c r="CR1" s="47"/>
+      <c r="CS1" s="47"/>
+      <c r="CT1" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="CU1" s="50"/>
-      <c r="CV1" s="50"/>
-      <c r="CW1" s="50"/>
-      <c r="CX1" s="50"/>
-      <c r="CY1" s="50" t="s">
+      <c r="CU1" s="47"/>
+      <c r="CV1" s="47"/>
+      <c r="CW1" s="47"/>
+      <c r="CX1" s="47"/>
+      <c r="CY1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="CZ1" s="50"/>
-      <c r="DA1" s="50"/>
-      <c r="DB1" s="50"/>
-      <c r="DC1" s="50"/>
-      <c r="DD1" s="50" t="s">
+      <c r="CZ1" s="47"/>
+      <c r="DA1" s="47"/>
+      <c r="DB1" s="47"/>
+      <c r="DC1" s="47"/>
+      <c r="DD1" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="DE1" s="50"/>
-      <c r="DF1" s="50"/>
-      <c r="DG1" s="50"/>
-      <c r="DH1" s="50"/>
-      <c r="DI1" s="50" t="s">
+      <c r="DE1" s="47"/>
+      <c r="DF1" s="47"/>
+      <c r="DG1" s="47"/>
+      <c r="DH1" s="47"/>
+      <c r="DI1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="DJ1" s="50"/>
-      <c r="DK1" s="50"/>
-      <c r="DL1" s="50"/>
-      <c r="DM1" s="50"/>
-      <c r="DN1" s="50" t="s">
+      <c r="DJ1" s="47"/>
+      <c r="DK1" s="47"/>
+      <c r="DL1" s="47"/>
+      <c r="DM1" s="47"/>
+      <c r="DN1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="DO1" s="50"/>
-      <c r="DP1" s="50"/>
-      <c r="DQ1" s="50"/>
-      <c r="DR1" s="50"/>
-      <c r="DS1" s="48" t="s">
+      <c r="DO1" s="47"/>
+      <c r="DP1" s="47"/>
+      <c r="DQ1" s="47"/>
+      <c r="DR1" s="47"/>
+      <c r="DS1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="DT1" s="48"/>
-      <c r="DU1" s="48"/>
-      <c r="DV1" s="48"/>
-      <c r="DW1" s="48"/>
-      <c r="DX1" s="48" t="s">
+      <c r="DT1" s="49"/>
+      <c r="DU1" s="49"/>
+      <c r="DV1" s="49"/>
+      <c r="DW1" s="49"/>
+      <c r="DX1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="DY1" s="48"/>
-      <c r="DZ1" s="48"/>
-      <c r="EA1" s="48"/>
-      <c r="EB1" s="48"/>
-      <c r="EC1" s="48" t="s">
+      <c r="DY1" s="49"/>
+      <c r="DZ1" s="49"/>
+      <c r="EA1" s="49"/>
+      <c r="EB1" s="49"/>
+      <c r="EC1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="ED1" s="48"/>
-      <c r="EE1" s="48"/>
-      <c r="EF1" s="48"/>
-      <c r="EG1" s="48"/>
-      <c r="EH1" s="48" t="s">
+      <c r="ED1" s="49"/>
+      <c r="EE1" s="49"/>
+      <c r="EF1" s="49"/>
+      <c r="EG1" s="49"/>
+      <c r="EH1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="EI1" s="48"/>
-      <c r="EJ1" s="48"/>
-      <c r="EK1" s="48"/>
-      <c r="EL1" s="48"/>
-      <c r="EM1" s="48" t="s">
+      <c r="EI1" s="49"/>
+      <c r="EJ1" s="49"/>
+      <c r="EK1" s="49"/>
+      <c r="EL1" s="49"/>
+      <c r="EM1" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="EN1" s="48"/>
-      <c r="EO1" s="48"/>
-      <c r="EP1" s="48"/>
-      <c r="EQ1" s="48"/>
-      <c r="ER1" s="48" t="s">
+      <c r="EN1" s="49"/>
+      <c r="EO1" s="49"/>
+      <c r="EP1" s="49"/>
+      <c r="EQ1" s="49"/>
+      <c r="ER1" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="ES1" s="48"/>
-      <c r="ET1" s="48"/>
-      <c r="EU1" s="48"/>
-      <c r="EV1" s="48"/>
-      <c r="EW1" s="48" t="s">
+      <c r="ES1" s="49"/>
+      <c r="ET1" s="49"/>
+      <c r="EU1" s="49"/>
+      <c r="EV1" s="49"/>
+      <c r="EW1" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="EX1" s="48"/>
-      <c r="EY1" s="48"/>
-      <c r="EZ1" s="48"/>
-      <c r="FA1" s="48"/>
-      <c r="FB1" s="46" t="s">
+      <c r="EX1" s="49"/>
+      <c r="EY1" s="49"/>
+      <c r="EZ1" s="49"/>
+      <c r="FA1" s="49"/>
+      <c r="FB1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="FC1" s="46"/>
-      <c r="FD1" s="46"/>
-      <c r="FE1" s="46"/>
-      <c r="FF1" s="46"/>
-      <c r="FG1" s="46" t="s">
+      <c r="FC1" s="45"/>
+      <c r="FD1" s="45"/>
+      <c r="FE1" s="45"/>
+      <c r="FF1" s="45"/>
+      <c r="FG1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="FH1" s="46"/>
-      <c r="FI1" s="46"/>
-      <c r="FJ1" s="46"/>
-      <c r="FK1" s="46"/>
-      <c r="FL1" s="46" t="s">
+      <c r="FH1" s="45"/>
+      <c r="FI1" s="45"/>
+      <c r="FJ1" s="45"/>
+      <c r="FK1" s="45"/>
+      <c r="FL1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="FM1" s="46"/>
-      <c r="FN1" s="46"/>
-      <c r="FO1" s="46"/>
-      <c r="FP1" s="46"/>
-      <c r="FQ1" s="46" t="s">
+      <c r="FM1" s="45"/>
+      <c r="FN1" s="45"/>
+      <c r="FO1" s="45"/>
+      <c r="FP1" s="45"/>
+      <c r="FQ1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="FR1" s="46"/>
-      <c r="FS1" s="46"/>
-      <c r="FT1" s="46"/>
-      <c r="FU1" s="46"/>
-      <c r="FV1" s="47" t="s">
+      <c r="FR1" s="45"/>
+      <c r="FS1" s="45"/>
+      <c r="FT1" s="45"/>
+      <c r="FU1" s="45"/>
+      <c r="FV1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="FW1" s="47"/>
-      <c r="FX1" s="47"/>
-      <c r="FY1" s="47"/>
-      <c r="FZ1" s="47"/>
-      <c r="GA1" s="46" t="s">
+      <c r="FW1" s="50"/>
+      <c r="FX1" s="50"/>
+      <c r="FY1" s="50"/>
+      <c r="FZ1" s="50"/>
+      <c r="GA1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="GB1" s="46"/>
-      <c r="GC1" s="46"/>
-      <c r="GD1" s="46"/>
-      <c r="GE1" s="46"/>
-      <c r="GF1" s="46" t="s">
+      <c r="GB1" s="45"/>
+      <c r="GC1" s="45"/>
+      <c r="GD1" s="45"/>
+      <c r="GE1" s="45"/>
+      <c r="GF1" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="GG1" s="46"/>
-      <c r="GH1" s="46"/>
-      <c r="GI1" s="46"/>
-      <c r="GJ1" s="46"/>
-      <c r="GK1" s="46" t="s">
+      <c r="GG1" s="45"/>
+      <c r="GH1" s="45"/>
+      <c r="GI1" s="45"/>
+      <c r="GJ1" s="45"/>
+      <c r="GK1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="GL1" s="46"/>
-      <c r="GM1" s="46"/>
-      <c r="GN1" s="46"/>
-      <c r="GO1" s="46"/>
-      <c r="GP1" s="46" t="s">
+      <c r="GL1" s="45"/>
+      <c r="GM1" s="45"/>
+      <c r="GN1" s="45"/>
+      <c r="GO1" s="45"/>
+      <c r="GP1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="GQ1" s="46"/>
-      <c r="GR1" s="46"/>
-      <c r="GS1" s="46"/>
-      <c r="GT1" s="46"/>
-      <c r="GU1" s="46" t="s">
+      <c r="GQ1" s="45"/>
+      <c r="GR1" s="45"/>
+      <c r="GS1" s="45"/>
+      <c r="GT1" s="45"/>
+      <c r="GU1" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="GV1" s="46"/>
-      <c r="GW1" s="46"/>
-      <c r="GX1" s="46"/>
-      <c r="GY1" s="46"/>
-      <c r="GZ1" s="46" t="s">
+      <c r="GV1" s="45"/>
+      <c r="GW1" s="45"/>
+      <c r="GX1" s="45"/>
+      <c r="GY1" s="45"/>
+      <c r="GZ1" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="HA1" s="46"/>
-      <c r="HB1" s="46"/>
-      <c r="HC1" s="46"/>
-      <c r="HD1" s="46"/>
-      <c r="HE1" s="46" t="s">
+      <c r="HA1" s="45"/>
+      <c r="HB1" s="45"/>
+      <c r="HC1" s="45"/>
+      <c r="HD1" s="45"/>
+      <c r="HE1" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="HF1" s="46"/>
-      <c r="HG1" s="46"/>
-      <c r="HH1" s="46"/>
-      <c r="HI1" s="46"/>
-      <c r="HJ1" s="47" t="s">
+      <c r="HF1" s="45"/>
+      <c r="HG1" s="45"/>
+      <c r="HH1" s="45"/>
+      <c r="HI1" s="45"/>
+      <c r="HJ1" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="HK1" s="47"/>
-      <c r="HL1" s="47"/>
-      <c r="HM1" s="47"/>
-      <c r="HN1" s="47"/>
-      <c r="HO1" s="46" t="s">
+      <c r="HK1" s="50"/>
+      <c r="HL1" s="50"/>
+      <c r="HM1" s="50"/>
+      <c r="HN1" s="50"/>
+      <c r="HO1" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="HP1" s="46"/>
-      <c r="HQ1" s="46"/>
-      <c r="HR1" s="46"/>
-      <c r="HS1" s="46"/>
-      <c r="HT1" s="46" t="s">
+      <c r="HP1" s="45"/>
+      <c r="HQ1" s="45"/>
+      <c r="HR1" s="45"/>
+      <c r="HS1" s="45"/>
+      <c r="HT1" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="HU1" s="46"/>
-      <c r="HV1" s="46"/>
-      <c r="HW1" s="46"/>
-      <c r="HX1" s="46"/>
-      <c r="HY1" s="46" t="s">
+      <c r="HU1" s="45"/>
+      <c r="HV1" s="45"/>
+      <c r="HW1" s="45"/>
+      <c r="HX1" s="45"/>
+      <c r="HY1" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="HZ1" s="46"/>
-      <c r="IA1" s="46"/>
-      <c r="IB1" s="46"/>
-      <c r="IC1" s="46"/>
-      <c r="ID1" s="46" t="s">
+      <c r="HZ1" s="45"/>
+      <c r="IA1" s="45"/>
+      <c r="IB1" s="45"/>
+      <c r="IC1" s="45"/>
+      <c r="ID1" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="IE1" s="46"/>
-      <c r="IF1" s="46"/>
-      <c r="IG1" s="46"/>
-      <c r="IH1" s="46"/>
-      <c r="II1" s="46" t="s">
+      <c r="IE1" s="45"/>
+      <c r="IF1" s="45"/>
+      <c r="IG1" s="45"/>
+      <c r="IH1" s="45"/>
+      <c r="II1" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="IJ1" s="46"/>
-      <c r="IK1" s="46"/>
-      <c r="IL1" s="46"/>
-      <c r="IM1" s="46"/>
-      <c r="IN1" s="47" t="s">
+      <c r="IJ1" s="45"/>
+      <c r="IK1" s="45"/>
+      <c r="IL1" s="45"/>
+      <c r="IM1" s="45"/>
+      <c r="IN1" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="IO1" s="47"/>
-      <c r="IP1" s="47"/>
-      <c r="IQ1" s="47"/>
-      <c r="IR1" s="47"/>
-      <c r="IS1" s="46" t="s">
+      <c r="IO1" s="50"/>
+      <c r="IP1" s="50"/>
+      <c r="IQ1" s="50"/>
+      <c r="IR1" s="50"/>
+      <c r="IS1" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="IT1" s="46"/>
-      <c r="IU1" s="46"/>
-      <c r="IV1" s="46"/>
-      <c r="IW1" s="46"/>
-      <c r="IX1" s="46" t="s">
+      <c r="IT1" s="45"/>
+      <c r="IU1" s="45"/>
+      <c r="IV1" s="45"/>
+      <c r="IW1" s="45"/>
+      <c r="IX1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="IY1" s="46"/>
-      <c r="IZ1" s="46"/>
-      <c r="JA1" s="46"/>
-      <c r="JB1" s="46"/>
-      <c r="JC1" s="46" t="s">
+      <c r="IY1" s="45"/>
+      <c r="IZ1" s="45"/>
+      <c r="JA1" s="45"/>
+      <c r="JB1" s="45"/>
+      <c r="JC1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="JD1" s="46"/>
-      <c r="JE1" s="46" t="s">
+      <c r="JD1" s="45"/>
+      <c r="JE1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="JF1" s="46"/>
-      <c r="JG1" s="46" t="s">
+      <c r="JF1" s="45"/>
+      <c r="JG1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="JH1" s="46"/>
-      <c r="JI1" s="46" t="s">
+      <c r="JH1" s="45"/>
+      <c r="JI1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="JJ1" s="46"/>
-      <c r="JK1" s="46" t="s">
+      <c r="JJ1" s="45"/>
+      <c r="JK1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="JL1" s="46"/>
-      <c r="JM1" s="46" t="s">
+      <c r="JL1" s="45"/>
+      <c r="JM1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="JN1" s="46"/>
-      <c r="JO1" s="45" t="s">
+      <c r="JN1" s="45"/>
+      <c r="JO1" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="JP1" s="45"/>
-      <c r="JQ1" s="45" t="s">
+      <c r="JP1" s="51"/>
+      <c r="JQ1" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="JR1" s="45"/>
-      <c r="JS1" s="45" t="s">
+      <c r="JR1" s="51"/>
+      <c r="JS1" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="JT1" s="45"/>
-      <c r="JU1" s="46" t="s">
+      <c r="JT1" s="51"/>
+      <c r="JU1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="JV1" s="45" t="s">
+      <c r="JV1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="JW1" s="45" t="s">
+      <c r="JW1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="JX1" s="45" t="s">
+      <c r="JX1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="JY1" s="44" t="s">
+      <c r="JY1" s="52" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
@@ -2985,11 +2988,11 @@
       <c r="JT2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="JU2" s="46"/>
-      <c r="JV2" s="45"/>
-      <c r="JW2" s="45"/>
-      <c r="JX2" s="45"/>
-      <c r="JY2" s="44"/>
+      <c r="JU2" s="45"/>
+      <c r="JV2" s="51"/>
+      <c r="JW2" s="51"/>
+      <c r="JX2" s="51"/>
+      <c r="JY2" s="52"/>
     </row>
     <row r="3" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -18221,7 +18224,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
       <c r="C18" s="25">
         <v>152111025</v>
@@ -36158,16 +36161,54 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="JY1:JY2"/>
+    <mergeCell ref="JQ1:JR1"/>
+    <mergeCell ref="JS1:JT1"/>
+    <mergeCell ref="JV1:JV2"/>
+    <mergeCell ref="JW1:JW2"/>
+    <mergeCell ref="JX1:JX2"/>
+    <mergeCell ref="JU1:JU2"/>
+    <mergeCell ref="HJ1:HN1"/>
+    <mergeCell ref="HO1:HS1"/>
+    <mergeCell ref="HT1:HX1"/>
+    <mergeCell ref="GF1:GJ1"/>
+    <mergeCell ref="GK1:GO1"/>
+    <mergeCell ref="GP1:GT1"/>
+    <mergeCell ref="GU1:GY1"/>
+    <mergeCell ref="GZ1:HD1"/>
+    <mergeCell ref="HE1:HI1"/>
+    <mergeCell ref="JC1:JD1"/>
+    <mergeCell ref="JE1:JF1"/>
+    <mergeCell ref="HY1:IC1"/>
+    <mergeCell ref="ID1:IH1"/>
+    <mergeCell ref="II1:IM1"/>
+    <mergeCell ref="IN1:IR1"/>
+    <mergeCell ref="IS1:IW1"/>
+    <mergeCell ref="IX1:JB1"/>
+    <mergeCell ref="JG1:JH1"/>
+    <mergeCell ref="JI1:JJ1"/>
+    <mergeCell ref="JK1:JL1"/>
+    <mergeCell ref="JM1:JN1"/>
+    <mergeCell ref="JO1:JP1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="GA1:GE1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="EM1:EQ1"/>
+    <mergeCell ref="ER1:EV1"/>
+    <mergeCell ref="EW1:FA1"/>
+    <mergeCell ref="FB1:FF1"/>
+    <mergeCell ref="FG1:FK1"/>
+    <mergeCell ref="FL1:FP1"/>
+    <mergeCell ref="FQ1:FU1"/>
+    <mergeCell ref="FV1:FZ1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DN1:DR1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
@@ -36182,54 +36223,16 @@
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="GA1:GE1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="EM1:EQ1"/>
-    <mergeCell ref="ER1:EV1"/>
-    <mergeCell ref="EW1:FA1"/>
-    <mergeCell ref="FB1:FF1"/>
-    <mergeCell ref="FG1:FK1"/>
-    <mergeCell ref="FL1:FP1"/>
-    <mergeCell ref="FQ1:FU1"/>
-    <mergeCell ref="FV1:FZ1"/>
-    <mergeCell ref="JG1:JH1"/>
-    <mergeCell ref="JI1:JJ1"/>
-    <mergeCell ref="JK1:JL1"/>
-    <mergeCell ref="JM1:JN1"/>
-    <mergeCell ref="JO1:JP1"/>
-    <mergeCell ref="JC1:JD1"/>
-    <mergeCell ref="JE1:JF1"/>
-    <mergeCell ref="HY1:IC1"/>
-    <mergeCell ref="ID1:IH1"/>
-    <mergeCell ref="II1:IM1"/>
-    <mergeCell ref="IN1:IR1"/>
-    <mergeCell ref="IS1:IW1"/>
-    <mergeCell ref="IX1:JB1"/>
-    <mergeCell ref="HJ1:HN1"/>
-    <mergeCell ref="HO1:HS1"/>
-    <mergeCell ref="HT1:HX1"/>
-    <mergeCell ref="GF1:GJ1"/>
-    <mergeCell ref="GK1:GO1"/>
-    <mergeCell ref="GP1:GT1"/>
-    <mergeCell ref="GU1:GY1"/>
-    <mergeCell ref="GZ1:HD1"/>
-    <mergeCell ref="HE1:HI1"/>
-    <mergeCell ref="JY1:JY2"/>
-    <mergeCell ref="JQ1:JR1"/>
-    <mergeCell ref="JS1:JT1"/>
-    <mergeCell ref="JV1:JV2"/>
-    <mergeCell ref="JW1:JW2"/>
-    <mergeCell ref="JX1:JX2"/>
-    <mergeCell ref="JU1:JU2"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36271,22 +36274,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>107</v>
       </c>
       <c r="G1" s="53" t="s">
@@ -36380,62 +36383,62 @@
       <c r="BQ1" s="54"/>
       <c r="BR1" s="54"/>
       <c r="BS1" s="55"/>
-      <c r="BT1" s="46" t="s">
+      <c r="BT1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46" t="s">
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46" t="s">
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46" t="s">
+      <c r="BY1" s="45"/>
+      <c r="BZ1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="46" t="s">
+      <c r="CA1" s="45"/>
+      <c r="CB1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46" t="s">
+      <c r="CC1" s="45"/>
+      <c r="CD1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="45" t="s">
+      <c r="CE1" s="45"/>
+      <c r="CF1" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45" t="s">
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="CI1" s="45"/>
-      <c r="CJ1" s="45" t="s">
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="CK1" s="45"/>
-      <c r="CL1" s="46" t="s">
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="CM1" s="45" t="s">
+      <c r="CM1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="CN1" s="45" t="s">
+      <c r="CN1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="CO1" s="45" t="s">
+      <c r="CO1" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
@@ -36685,10 +36688,10 @@
       <c r="CK2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="CL2" s="46"/>
-      <c r="CM2" s="45"/>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="45"/>
+      <c r="CL2" s="45"/>
+      <c r="CM2" s="51"/>
+      <c r="CN2" s="51"/>
+      <c r="CO2" s="51"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -48862,6 +48865,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="CM1:CM2"/>
+    <mergeCell ref="CN1:CN2"/>
+    <mergeCell ref="CO1:CO2"/>
+    <mergeCell ref="CD1:CE1"/>
+    <mergeCell ref="CF1:CG1"/>
+    <mergeCell ref="CH1:CI1"/>
+    <mergeCell ref="CJ1:CK1"/>
+    <mergeCell ref="CL1:CL2"/>
+    <mergeCell ref="CB1:CC1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BV1:BW1"/>
+    <mergeCell ref="BX1:BY1"/>
+    <mergeCell ref="BZ1:CA1"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -48874,26 +48897,6 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="CB1:CC1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BT1:BU1"/>
-    <mergeCell ref="BV1:BW1"/>
-    <mergeCell ref="BX1:BY1"/>
-    <mergeCell ref="BZ1:CA1"/>
-    <mergeCell ref="CM1:CM2"/>
-    <mergeCell ref="CN1:CN2"/>
-    <mergeCell ref="CO1:CO2"/>
-    <mergeCell ref="CD1:CE1"/>
-    <mergeCell ref="CF1:CG1"/>
-    <mergeCell ref="CH1:CI1"/>
-    <mergeCell ref="CJ1:CK1"/>
-    <mergeCell ref="CL1:CL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler.xlsx
+++ b/S1 Keperawatan/Reguler/Transkip Nilai S1 Reguler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\Reguler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17320B3F-56BF-4414-A02A-7F22A41236FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607EF8F-51A3-405A-8F58-4A9745D88BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{42621251-7584-4841-8D22-06C617E2C04A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42621251-7584-4841-8D22-06C617E2C04A}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="294">
   <si>
     <t>NO</t>
   </si>
@@ -915,6 +915,9 @@
   <si>
     <t>M.Alif Amarul Syofiadi</t>
   </si>
+  <si>
+    <t>Sri Bintan</t>
+  </si>
 </sst>
 </file>
 
@@ -923,7 +926,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,8 +995,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1116,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1235,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,9 +1248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,6 +1279,84 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1588,10 +1681,10 @@
   <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IZ15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,188 +1824,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44" t="s">
+      <c r="H1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44" t="s">
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="48" t="s">
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48" t="s">
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48" t="s">
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48" t="s">
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48" t="s">
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="48" t="s">
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
-      <c r="BS1" s="48"/>
-      <c r="BT1" s="48"/>
-      <c r="BU1" s="48" t="s">
+      <c r="BQ1" s="44"/>
+      <c r="BR1" s="44"/>
+      <c r="BS1" s="44"/>
+      <c r="BT1" s="44"/>
+      <c r="BU1" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="BV1" s="48"/>
-      <c r="BW1" s="48"/>
-      <c r="BX1" s="48"/>
-      <c r="BY1" s="48"/>
-      <c r="BZ1" s="48" t="s">
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44"/>
+      <c r="BX1" s="44"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="CA1" s="48"/>
-      <c r="CB1" s="48"/>
-      <c r="CC1" s="48"/>
-      <c r="CD1" s="48"/>
-      <c r="CE1" s="47" t="s">
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="CF1" s="47"/>
-      <c r="CG1" s="47"/>
-      <c r="CH1" s="47"/>
-      <c r="CI1" s="47"/>
-      <c r="CJ1" s="47" t="s">
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="48"/>
+      <c r="CH1" s="48"/>
+      <c r="CI1" s="48"/>
+      <c r="CJ1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="CK1" s="47"/>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="47"/>
-      <c r="CN1" s="47"/>
-      <c r="CO1" s="47" t="s">
+      <c r="CK1" s="48"/>
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="48"/>
+      <c r="CN1" s="48"/>
+      <c r="CO1" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="CP1" s="47"/>
-      <c r="CQ1" s="47"/>
-      <c r="CR1" s="47"/>
-      <c r="CS1" s="47"/>
-      <c r="CT1" s="47" t="s">
+      <c r="CP1" s="48"/>
+      <c r="CQ1" s="48"/>
+      <c r="CR1" s="48"/>
+      <c r="CS1" s="48"/>
+      <c r="CT1" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="CU1" s="47"/>
-      <c r="CV1" s="47"/>
-      <c r="CW1" s="47"/>
-      <c r="CX1" s="47"/>
-      <c r="CY1" s="47" t="s">
+      <c r="CU1" s="48"/>
+      <c r="CV1" s="48"/>
+      <c r="CW1" s="48"/>
+      <c r="CX1" s="48"/>
+      <c r="CY1" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="CZ1" s="47"/>
-      <c r="DA1" s="47"/>
-      <c r="DB1" s="47"/>
-      <c r="DC1" s="47"/>
-      <c r="DD1" s="47" t="s">
+      <c r="CZ1" s="48"/>
+      <c r="DA1" s="48"/>
+      <c r="DB1" s="48"/>
+      <c r="DC1" s="48"/>
+      <c r="DD1" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="DE1" s="47"/>
-      <c r="DF1" s="47"/>
-      <c r="DG1" s="47"/>
-      <c r="DH1" s="47"/>
-      <c r="DI1" s="47" t="s">
+      <c r="DE1" s="48"/>
+      <c r="DF1" s="48"/>
+      <c r="DG1" s="48"/>
+      <c r="DH1" s="48"/>
+      <c r="DI1" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="DJ1" s="47"/>
-      <c r="DK1" s="47"/>
-      <c r="DL1" s="47"/>
-      <c r="DM1" s="47"/>
-      <c r="DN1" s="47" t="s">
+      <c r="DJ1" s="48"/>
+      <c r="DK1" s="48"/>
+      <c r="DL1" s="48"/>
+      <c r="DM1" s="48"/>
+      <c r="DN1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="DO1" s="47"/>
-      <c r="DP1" s="47"/>
-      <c r="DQ1" s="47"/>
-      <c r="DR1" s="47"/>
+      <c r="DO1" s="48"/>
+      <c r="DP1" s="48"/>
+      <c r="DQ1" s="48"/>
+      <c r="DR1" s="48"/>
       <c r="DS1" s="49" t="s">
         <v>77</v>
       </c>
@@ -1962,34 +2055,34 @@
       <c r="EY1" s="49"/>
       <c r="EZ1" s="49"/>
       <c r="FA1" s="49"/>
-      <c r="FB1" s="45" t="s">
+      <c r="FB1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="FC1" s="45"/>
-      <c r="FD1" s="45"/>
-      <c r="FE1" s="45"/>
-      <c r="FF1" s="45"/>
-      <c r="FG1" s="45" t="s">
+      <c r="FC1" s="46"/>
+      <c r="FD1" s="46"/>
+      <c r="FE1" s="46"/>
+      <c r="FF1" s="46"/>
+      <c r="FG1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="FH1" s="45"/>
-      <c r="FI1" s="45"/>
-      <c r="FJ1" s="45"/>
-      <c r="FK1" s="45"/>
-      <c r="FL1" s="45" t="s">
+      <c r="FH1" s="46"/>
+      <c r="FI1" s="46"/>
+      <c r="FJ1" s="46"/>
+      <c r="FK1" s="46"/>
+      <c r="FL1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="FM1" s="45"/>
-      <c r="FN1" s="45"/>
-      <c r="FO1" s="45"/>
-      <c r="FP1" s="45"/>
-      <c r="FQ1" s="45" t="s">
+      <c r="FM1" s="46"/>
+      <c r="FN1" s="46"/>
+      <c r="FO1" s="46"/>
+      <c r="FP1" s="46"/>
+      <c r="FQ1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="FR1" s="45"/>
-      <c r="FS1" s="45"/>
-      <c r="FT1" s="45"/>
-      <c r="FU1" s="45"/>
+      <c r="FR1" s="46"/>
+      <c r="FS1" s="46"/>
+      <c r="FT1" s="46"/>
+      <c r="FU1" s="46"/>
       <c r="FV1" s="50" t="s">
         <v>88</v>
       </c>
@@ -1997,55 +2090,55 @@
       <c r="FX1" s="50"/>
       <c r="FY1" s="50"/>
       <c r="FZ1" s="50"/>
-      <c r="GA1" s="45" t="s">
+      <c r="GA1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="GB1" s="45"/>
-      <c r="GC1" s="45"/>
-      <c r="GD1" s="45"/>
-      <c r="GE1" s="45"/>
-      <c r="GF1" s="45" t="s">
+      <c r="GB1" s="46"/>
+      <c r="GC1" s="46"/>
+      <c r="GD1" s="46"/>
+      <c r="GE1" s="46"/>
+      <c r="GF1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="GG1" s="45"/>
-      <c r="GH1" s="45"/>
-      <c r="GI1" s="45"/>
-      <c r="GJ1" s="45"/>
-      <c r="GK1" s="45" t="s">
+      <c r="GG1" s="46"/>
+      <c r="GH1" s="46"/>
+      <c r="GI1" s="46"/>
+      <c r="GJ1" s="46"/>
+      <c r="GK1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="GL1" s="45"/>
-      <c r="GM1" s="45"/>
-      <c r="GN1" s="45"/>
-      <c r="GO1" s="45"/>
-      <c r="GP1" s="45" t="s">
+      <c r="GL1" s="46"/>
+      <c r="GM1" s="46"/>
+      <c r="GN1" s="46"/>
+      <c r="GO1" s="46"/>
+      <c r="GP1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="GQ1" s="45"/>
-      <c r="GR1" s="45"/>
-      <c r="GS1" s="45"/>
-      <c r="GT1" s="45"/>
-      <c r="GU1" s="45" t="s">
+      <c r="GQ1" s="46"/>
+      <c r="GR1" s="46"/>
+      <c r="GS1" s="46"/>
+      <c r="GT1" s="46"/>
+      <c r="GU1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="GV1" s="45"/>
-      <c r="GW1" s="45"/>
-      <c r="GX1" s="45"/>
-      <c r="GY1" s="45"/>
-      <c r="GZ1" s="45" t="s">
+      <c r="GV1" s="46"/>
+      <c r="GW1" s="46"/>
+      <c r="GX1" s="46"/>
+      <c r="GY1" s="46"/>
+      <c r="GZ1" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="HA1" s="45"/>
-      <c r="HB1" s="45"/>
-      <c r="HC1" s="45"/>
-      <c r="HD1" s="45"/>
-      <c r="HE1" s="45" t="s">
+      <c r="HA1" s="46"/>
+      <c r="HB1" s="46"/>
+      <c r="HC1" s="46"/>
+      <c r="HD1" s="46"/>
+      <c r="HE1" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="HF1" s="45"/>
-      <c r="HG1" s="45"/>
-      <c r="HH1" s="45"/>
-      <c r="HI1" s="45"/>
+      <c r="HF1" s="46"/>
+      <c r="HG1" s="46"/>
+      <c r="HH1" s="46"/>
+      <c r="HI1" s="46"/>
       <c r="HJ1" s="50" t="s">
         <v>96</v>
       </c>
@@ -2053,41 +2146,41 @@
       <c r="HL1" s="50"/>
       <c r="HM1" s="50"/>
       <c r="HN1" s="50"/>
-      <c r="HO1" s="45" t="s">
+      <c r="HO1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="HP1" s="45"/>
-      <c r="HQ1" s="45"/>
-      <c r="HR1" s="45"/>
-      <c r="HS1" s="45"/>
-      <c r="HT1" s="45" t="s">
+      <c r="HP1" s="46"/>
+      <c r="HQ1" s="46"/>
+      <c r="HR1" s="46"/>
+      <c r="HS1" s="46"/>
+      <c r="HT1" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="HU1" s="45"/>
-      <c r="HV1" s="45"/>
-      <c r="HW1" s="45"/>
-      <c r="HX1" s="45"/>
-      <c r="HY1" s="45" t="s">
+      <c r="HU1" s="46"/>
+      <c r="HV1" s="46"/>
+      <c r="HW1" s="46"/>
+      <c r="HX1" s="46"/>
+      <c r="HY1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="HZ1" s="45"/>
-      <c r="IA1" s="45"/>
-      <c r="IB1" s="45"/>
-      <c r="IC1" s="45"/>
-      <c r="ID1" s="45" t="s">
+      <c r="HZ1" s="46"/>
+      <c r="IA1" s="46"/>
+      <c r="IB1" s="46"/>
+      <c r="IC1" s="46"/>
+      <c r="ID1" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="IE1" s="45"/>
-      <c r="IF1" s="45"/>
-      <c r="IG1" s="45"/>
-      <c r="IH1" s="45"/>
-      <c r="II1" s="45" t="s">
+      <c r="IE1" s="46"/>
+      <c r="IF1" s="46"/>
+      <c r="IG1" s="46"/>
+      <c r="IH1" s="46"/>
+      <c r="II1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="IJ1" s="45"/>
-      <c r="IK1" s="45"/>
-      <c r="IL1" s="45"/>
-      <c r="IM1" s="45"/>
+      <c r="IJ1" s="46"/>
+      <c r="IK1" s="46"/>
+      <c r="IL1" s="46"/>
+      <c r="IM1" s="46"/>
       <c r="IN1" s="50" t="s">
         <v>102</v>
       </c>
@@ -2095,44 +2188,44 @@
       <c r="IP1" s="50"/>
       <c r="IQ1" s="50"/>
       <c r="IR1" s="50"/>
-      <c r="IS1" s="45" t="s">
+      <c r="IS1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="IT1" s="45"/>
-      <c r="IU1" s="45"/>
-      <c r="IV1" s="45"/>
-      <c r="IW1" s="45"/>
-      <c r="IX1" s="45" t="s">
+      <c r="IT1" s="46"/>
+      <c r="IU1" s="46"/>
+      <c r="IV1" s="46"/>
+      <c r="IW1" s="46"/>
+      <c r="IX1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="IY1" s="45"/>
-      <c r="IZ1" s="45"/>
-      <c r="JA1" s="45"/>
-      <c r="JB1" s="45"/>
-      <c r="JC1" s="45" t="s">
+      <c r="IY1" s="46"/>
+      <c r="IZ1" s="46"/>
+      <c r="JA1" s="46"/>
+      <c r="JB1" s="46"/>
+      <c r="JC1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="JD1" s="45"/>
-      <c r="JE1" s="45" t="s">
+      <c r="JD1" s="46"/>
+      <c r="JE1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="JF1" s="45"/>
-      <c r="JG1" s="45" t="s">
+      <c r="JF1" s="46"/>
+      <c r="JG1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="JH1" s="45"/>
-      <c r="JI1" s="45" t="s">
+      <c r="JH1" s="46"/>
+      <c r="JI1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="JJ1" s="45"/>
-      <c r="JK1" s="45" t="s">
+      <c r="JJ1" s="46"/>
+      <c r="JK1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="JL1" s="45"/>
-      <c r="JM1" s="45" t="s">
+      <c r="JL1" s="46"/>
+      <c r="JM1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="JN1" s="45"/>
+      <c r="JN1" s="46"/>
       <c r="JO1" s="51" t="s">
         <v>116</v>
       </c>
@@ -2145,7 +2238,7 @@
         <v>132</v>
       </c>
       <c r="JT1" s="51"/>
-      <c r="JU1" s="45" t="s">
+      <c r="JU1" s="46" t="s">
         <v>11</v>
       </c>
       <c r="JV1" s="51" t="s">
@@ -2162,13 +2255,13 @@
       </c>
     </row>
     <row r="2" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
@@ -2988,7 +3081,7 @@
       <c r="JT2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="JU2" s="45"/>
+      <c r="JU2" s="46"/>
       <c r="JV2" s="51"/>
       <c r="JW2" s="51"/>
       <c r="JX2" s="51"/>
@@ -10099,1018 +10192,1020 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:285" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="61">
         <v>152111013</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="64">
         <v>78.650000000000006</v>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="62" t="str">
         <f t="shared" si="42"/>
         <v>B+</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="65">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="K10" s="10">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="K10" s="62">
+        <v>2</v>
+      </c>
+      <c r="L10" s="65">
         <f t="shared" si="43"/>
         <v>7</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="66">
         <v>76.625</v>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="62" t="str">
         <f t="shared" si="44"/>
         <v>B+</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="65">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="P10" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="P10" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="65">
         <f t="shared" si="45"/>
         <v>10.5</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="67">
         <v>75.400000000000006</v>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="62" t="str">
         <f t="shared" si="46"/>
         <v>B+</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="65">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="U10" s="10">
-        <v>4</v>
-      </c>
-      <c r="V10" s="1">
+      <c r="U10" s="62">
+        <v>4</v>
+      </c>
+      <c r="V10" s="65">
         <f t="shared" si="47"/>
         <v>14</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="68">
         <v>83.75</v>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="62" t="str">
         <f t="shared" si="48"/>
         <v>A</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="65">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Z10" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="1">
+      <c r="Z10" s="62">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="65">
         <f t="shared" si="49"/>
         <v>8</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="68">
         <v>79.900000000000006</v>
       </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AC10" s="62" t="str">
         <f t="shared" si="50"/>
         <v>B+</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="65">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="AE10" s="10">
-        <v>4</v>
-      </c>
-      <c r="AF10" s="1">
+      <c r="AE10" s="62">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="65">
         <f t="shared" si="51"/>
         <v>14</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="68">
         <v>74.650000000000006</v>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="62" t="str">
         <f t="shared" si="52"/>
         <v>B</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="65">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AJ10" s="10">
-        <v>4</v>
-      </c>
-      <c r="AK10" s="1">
+      <c r="AJ10" s="62">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="65">
         <f t="shared" si="53"/>
         <v>12</v>
       </c>
-      <c r="AL10" s="13">
+      <c r="AL10" s="69">
         <v>79.7</v>
       </c>
-      <c r="AM10" s="10" t="str">
+      <c r="AM10" s="62" t="str">
         <f t="shared" si="54"/>
         <v>B+</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10" s="65">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="AO10" s="10">
-        <v>3</v>
-      </c>
-      <c r="AP10" s="1">
+      <c r="AO10" s="62">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="65">
         <f t="shared" si="55"/>
         <v>10.5</v>
       </c>
-      <c r="AQ10" s="12">
+      <c r="AQ10" s="68">
         <v>86.2</v>
       </c>
-      <c r="AR10" s="10" t="str">
+      <c r="AR10" s="62" t="str">
         <f t="shared" si="56"/>
         <v>A</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="65">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AT10" s="10">
-        <v>3</v>
-      </c>
-      <c r="AU10" s="1">
+      <c r="AT10" s="62">
+        <v>3</v>
+      </c>
+      <c r="AU10" s="65">
         <f t="shared" si="57"/>
         <v>12</v>
       </c>
-      <c r="AV10" s="11">
+      <c r="AV10" s="66">
         <v>70</v>
       </c>
-      <c r="AW10" s="10" t="str">
+      <c r="AW10" s="62" t="str">
         <f t="shared" si="58"/>
         <v>B</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AX10" s="65">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AY10" s="10">
-        <v>2</v>
-      </c>
-      <c r="AZ10" s="1">
+      <c r="AY10" s="62">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="65">
         <f t="shared" si="59"/>
         <v>6</v>
       </c>
-      <c r="BA10" s="12">
+      <c r="BA10" s="68">
         <v>80.099999999999994</v>
       </c>
-      <c r="BB10" s="10" t="str">
+      <c r="BB10" s="62" t="str">
         <f t="shared" si="60"/>
         <v>A</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BC10" s="65">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="BD10" s="10">
-        <v>2</v>
-      </c>
-      <c r="BE10" s="1">
+      <c r="BD10" s="62">
+        <v>2</v>
+      </c>
+      <c r="BE10" s="65">
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
-      <c r="BF10" s="14">
+      <c r="BF10" s="70">
         <v>80</v>
       </c>
-      <c r="BG10" s="10" t="str">
+      <c r="BG10" s="62" t="str">
         <f t="shared" si="62"/>
         <v>A</v>
       </c>
-      <c r="BH10" s="1">
+      <c r="BH10" s="65">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="BI10" s="10">
-        <v>3</v>
-      </c>
-      <c r="BJ10" s="1">
+      <c r="BI10" s="62">
+        <v>3</v>
+      </c>
+      <c r="BJ10" s="65">
         <f t="shared" si="63"/>
         <v>12</v>
       </c>
-      <c r="BK10" s="15">
+      <c r="BK10" s="71">
         <v>85.5</v>
       </c>
-      <c r="BL10" s="10" t="str">
+      <c r="BL10" s="62" t="str">
         <f t="shared" si="64"/>
         <v>A</v>
       </c>
-      <c r="BM10" s="1">
+      <c r="BM10" s="65">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="BN10" s="10">
-        <v>2</v>
-      </c>
-      <c r="BO10" s="1">
+      <c r="BN10" s="62">
+        <v>2</v>
+      </c>
+      <c r="BO10" s="65">
         <f t="shared" si="65"/>
         <v>8</v>
       </c>
-      <c r="BP10" s="12">
+      <c r="BP10" s="68">
         <v>70.55</v>
       </c>
-      <c r="BQ10" s="10" t="str">
+      <c r="BQ10" s="62" t="str">
         <f t="shared" si="66"/>
         <v>B</v>
       </c>
-      <c r="BR10" s="1">
+      <c r="BR10" s="65">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="BS10" s="10">
-        <v>2</v>
-      </c>
-      <c r="BT10" s="1">
+      <c r="BS10" s="62">
+        <v>2</v>
+      </c>
+      <c r="BT10" s="65">
         <f t="shared" si="67"/>
         <v>6</v>
       </c>
-      <c r="BU10" s="4">
+      <c r="BU10" s="72">
         <v>72.849999999999994</v>
       </c>
-      <c r="BV10" s="10" t="str">
+      <c r="BV10" s="62" t="str">
         <f t="shared" si="68"/>
         <v>B</v>
       </c>
-      <c r="BW10" s="1">
+      <c r="BW10" s="65">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="BX10" s="10">
-        <v>3</v>
-      </c>
-      <c r="BY10" s="1">
+      <c r="BX10" s="62">
+        <v>3</v>
+      </c>
+      <c r="BY10" s="65">
         <f t="shared" si="69"/>
         <v>9</v>
       </c>
-      <c r="BZ10" s="13">
+      <c r="BZ10" s="69">
         <v>72.183333333333337</v>
       </c>
-      <c r="CA10" s="10" t="str">
+      <c r="CA10" s="62" t="str">
         <f t="shared" si="70"/>
         <v>B</v>
       </c>
-      <c r="CB10" s="1">
+      <c r="CB10" s="65">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="CC10" s="10">
-        <v>2</v>
-      </c>
-      <c r="CD10" s="1">
+      <c r="CC10" s="62">
+        <v>2</v>
+      </c>
+      <c r="CD10" s="65">
         <f t="shared" si="71"/>
         <v>6</v>
       </c>
-      <c r="CE10" s="19">
+      <c r="CE10" s="73">
         <v>77.240000000000009</v>
       </c>
-      <c r="CF10" s="10" t="str">
+      <c r="CF10" s="62" t="str">
         <f t="shared" si="72"/>
         <v>B+</v>
       </c>
-      <c r="CG10" s="1">
+      <c r="CG10" s="65">
         <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
-      <c r="CH10" s="10">
-        <v>4</v>
-      </c>
-      <c r="CI10" s="1">
+      <c r="CH10" s="62">
+        <v>4</v>
+      </c>
+      <c r="CI10" s="65">
         <f t="shared" si="73"/>
         <v>14</v>
       </c>
-      <c r="CJ10" s="16">
+      <c r="CJ10" s="74">
         <v>79.2</v>
       </c>
-      <c r="CK10" s="10" t="str">
+      <c r="CK10" s="62" t="str">
         <f t="shared" si="74"/>
         <v>B+</v>
       </c>
-      <c r="CL10" s="1">
+      <c r="CL10" s="65">
         <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
-      <c r="CM10" s="10">
-        <v>4</v>
-      </c>
-      <c r="CN10" s="1">
+      <c r="CM10" s="62">
+        <v>4</v>
+      </c>
+      <c r="CN10" s="65">
         <f t="shared" si="75"/>
         <v>14</v>
       </c>
-      <c r="CO10" s="19">
+      <c r="CO10" s="73">
         <v>76.2</v>
       </c>
-      <c r="CP10" s="10" t="str">
+      <c r="CP10" s="62" t="str">
         <f t="shared" si="76"/>
         <v>B+</v>
       </c>
-      <c r="CQ10" s="1">
+      <c r="CQ10" s="65">
         <f t="shared" si="17"/>
         <v>3.5</v>
       </c>
-      <c r="CR10" s="10">
-        <v>3</v>
-      </c>
-      <c r="CS10" s="1">
+      <c r="CR10" s="62">
+        <v>3</v>
+      </c>
+      <c r="CS10" s="65">
         <f t="shared" si="77"/>
         <v>10.5</v>
       </c>
-      <c r="CT10" s="17">
+      <c r="CT10" s="75">
         <v>76.621428571428567</v>
       </c>
-      <c r="CU10" s="10" t="str">
+      <c r="CU10" s="62" t="str">
         <f t="shared" si="78"/>
         <v>B+</v>
       </c>
-      <c r="CV10" s="1">
+      <c r="CV10" s="65">
         <f t="shared" si="18"/>
         <v>3.5</v>
       </c>
-      <c r="CW10" s="10">
-        <v>2</v>
-      </c>
-      <c r="CX10" s="1">
+      <c r="CW10" s="62">
+        <v>2</v>
+      </c>
+      <c r="CX10" s="65">
         <f t="shared" si="79"/>
         <v>7</v>
       </c>
-      <c r="CY10" s="18">
+      <c r="CY10" s="76">
         <v>80.550000000000011</v>
       </c>
-      <c r="CZ10" s="10" t="str">
+      <c r="CZ10" s="62" t="str">
         <f t="shared" si="80"/>
         <v>A</v>
       </c>
-      <c r="DA10" s="1">
+      <c r="DA10" s="65">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="DB10" s="10">
-        <v>2</v>
-      </c>
-      <c r="DC10" s="1">
+      <c r="DB10" s="62">
+        <v>2</v>
+      </c>
+      <c r="DC10" s="65">
         <f t="shared" si="81"/>
         <v>8</v>
       </c>
-      <c r="DD10" s="19">
+      <c r="DD10" s="73">
         <v>87.25</v>
       </c>
-      <c r="DE10" s="10" t="str">
+      <c r="DE10" s="62" t="str">
         <f t="shared" si="82"/>
         <v>A</v>
       </c>
-      <c r="DF10" s="1">
+      <c r="DF10" s="65">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="DG10" s="10">
-        <v>2</v>
-      </c>
-      <c r="DH10" s="1">
+      <c r="DG10" s="62">
+        <v>2</v>
+      </c>
+      <c r="DH10" s="65">
         <f t="shared" si="83"/>
         <v>8</v>
       </c>
-      <c r="DI10" s="5">
+      <c r="DI10" s="77">
         <v>87.5</v>
       </c>
-      <c r="DJ10" s="10" t="str">
+      <c r="DJ10" s="62" t="str">
         <f t="shared" si="84"/>
         <v>A</v>
       </c>
-      <c r="DK10" s="1">
+      <c r="DK10" s="65">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="DL10" s="10">
-        <v>2</v>
-      </c>
-      <c r="DM10" s="1">
+      <c r="DL10" s="62">
+        <v>2</v>
+      </c>
+      <c r="DM10" s="65">
         <f t="shared" si="85"/>
         <v>8</v>
       </c>
-      <c r="DN10" s="20">
+      <c r="DN10" s="78">
         <v>77</v>
       </c>
-      <c r="DO10" s="10" t="str">
+      <c r="DO10" s="62" t="str">
         <f t="shared" si="86"/>
         <v>B+</v>
       </c>
-      <c r="DP10" s="1">
+      <c r="DP10" s="65">
         <f t="shared" si="22"/>
         <v>3.5</v>
       </c>
-      <c r="DQ10" s="10">
-        <v>2</v>
-      </c>
-      <c r="DR10" s="1">
+      <c r="DQ10" s="62">
+        <v>2</v>
+      </c>
+      <c r="DR10" s="65">
         <f t="shared" si="87"/>
         <v>7</v>
       </c>
-      <c r="DS10" s="19">
+      <c r="DS10" s="73">
         <v>80</v>
       </c>
-      <c r="DT10" s="10" t="str">
+      <c r="DT10" s="62" t="str">
         <f t="shared" si="88"/>
         <v>A</v>
       </c>
-      <c r="DU10" s="1">
+      <c r="DU10" s="65">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="DV10" s="10">
-        <v>4</v>
-      </c>
-      <c r="DW10" s="1">
+      <c r="DV10" s="62">
+        <v>4</v>
+      </c>
+      <c r="DW10" s="65">
         <f t="shared" si="89"/>
         <v>16</v>
       </c>
-      <c r="DX10" s="16">
+      <c r="DX10" s="74">
         <v>72.849999999999994</v>
       </c>
-      <c r="DY10" s="10" t="str">
+      <c r="DY10" s="62" t="str">
         <f t="shared" si="90"/>
         <v>B</v>
       </c>
-      <c r="DZ10" s="1">
+      <c r="DZ10" s="65">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="EA10" s="10">
-        <v>3</v>
-      </c>
-      <c r="EB10" s="1">
+      <c r="EA10" s="62">
+        <v>3</v>
+      </c>
+      <c r="EB10" s="65">
         <f t="shared" si="91"/>
         <v>9</v>
       </c>
-      <c r="EC10" s="19">
+      <c r="EC10" s="73">
         <v>72.650000000000006</v>
       </c>
-      <c r="ED10" s="10" t="str">
+      <c r="ED10" s="62" t="str">
         <f t="shared" si="92"/>
         <v>B</v>
       </c>
-      <c r="EE10" s="1">
+      <c r="EE10" s="65">
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="EF10" s="10">
-        <v>3</v>
-      </c>
-      <c r="EG10" s="1">
+      <c r="EF10" s="62">
+        <v>3</v>
+      </c>
+      <c r="EG10" s="65">
         <f t="shared" si="93"/>
         <v>9</v>
       </c>
-      <c r="EH10" s="6">
+      <c r="EH10" s="79">
         <v>78.400000000000006</v>
       </c>
-      <c r="EI10" s="10" t="str">
+      <c r="EI10" s="62" t="str">
         <f t="shared" si="94"/>
         <v>B+</v>
       </c>
-      <c r="EJ10" s="1">
+      <c r="EJ10" s="65">
         <f t="shared" si="26"/>
         <v>3.5</v>
       </c>
-      <c r="EK10" s="10">
-        <v>3</v>
-      </c>
-      <c r="EL10" s="1">
+      <c r="EK10" s="62">
+        <v>3</v>
+      </c>
+      <c r="EL10" s="65">
         <f t="shared" si="95"/>
         <v>10.5</v>
       </c>
-      <c r="EM10" s="18">
+      <c r="EM10" s="76">
         <v>76.538888888888891</v>
       </c>
-      <c r="EN10" s="10" t="str">
+      <c r="EN10" s="62" t="str">
         <f t="shared" si="96"/>
         <v>B+</v>
       </c>
-      <c r="EO10" s="1">
+      <c r="EO10" s="65">
         <f t="shared" si="27"/>
         <v>3.5</v>
       </c>
-      <c r="EP10" s="10">
-        <v>3</v>
-      </c>
-      <c r="EQ10" s="1">
+      <c r="EP10" s="62">
+        <v>3</v>
+      </c>
+      <c r="EQ10" s="65">
         <f t="shared" si="97"/>
         <v>10.5</v>
       </c>
-      <c r="ER10" s="7">
+      <c r="ER10" s="80">
         <v>77.099999999999994</v>
       </c>
-      <c r="ES10" s="10" t="str">
+      <c r="ES10" s="62" t="str">
         <f t="shared" si="98"/>
         <v>B+</v>
       </c>
-      <c r="ET10" s="1">
+      <c r="ET10" s="65">
         <f t="shared" si="28"/>
         <v>3.5</v>
       </c>
-      <c r="EU10" s="10">
-        <v>2</v>
-      </c>
-      <c r="EV10" s="1">
+      <c r="EU10" s="62">
+        <v>2</v>
+      </c>
+      <c r="EV10" s="65">
         <f t="shared" si="99"/>
         <v>7</v>
       </c>
-      <c r="EW10" s="5">
+      <c r="EW10" s="77">
         <v>80.3</v>
       </c>
-      <c r="EX10" s="10" t="str">
+      <c r="EX10" s="62" t="str">
         <f t="shared" si="100"/>
         <v>A</v>
       </c>
-      <c r="EY10" s="1">
+      <c r="EY10" s="65">
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="EZ10" s="10">
-        <v>3</v>
-      </c>
-      <c r="FA10" s="1">
+      <c r="EZ10" s="62">
+        <v>3</v>
+      </c>
+      <c r="FA10" s="65">
         <f t="shared" si="101"/>
         <v>12</v>
       </c>
-      <c r="FB10" s="19">
+      <c r="FB10" s="73">
         <v>76</v>
       </c>
-      <c r="FC10" s="10" t="str">
+      <c r="FC10" s="62" t="str">
         <f t="shared" si="102"/>
         <v>B+</v>
       </c>
-      <c r="FD10" s="1">
+      <c r="FD10" s="65">
         <f t="shared" si="30"/>
         <v>3.5</v>
       </c>
-      <c r="FE10" s="10">
-        <v>2</v>
-      </c>
-      <c r="FF10" s="1">
+      <c r="FE10" s="62">
+        <v>2</v>
+      </c>
+      <c r="FF10" s="65">
         <f t="shared" si="103"/>
         <v>7</v>
       </c>
-      <c r="FG10" s="16">
+      <c r="FG10" s="74">
         <v>72</v>
       </c>
-      <c r="FH10" s="10" t="str">
+      <c r="FH10" s="62" t="str">
         <f t="shared" si="104"/>
         <v>B</v>
       </c>
-      <c r="FI10" s="1">
+      <c r="FI10" s="65">
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="FJ10" s="10">
-        <v>3</v>
-      </c>
-      <c r="FK10" s="1">
+      <c r="FJ10" s="62">
+        <v>3</v>
+      </c>
+      <c r="FK10" s="65">
         <f t="shared" si="105"/>
         <v>9</v>
       </c>
-      <c r="FL10" s="19">
+      <c r="FL10" s="73">
         <v>79.466666666666669</v>
       </c>
-      <c r="FM10" s="10" t="str">
+      <c r="FM10" s="62" t="str">
         <f t="shared" si="106"/>
         <v>B+</v>
       </c>
-      <c r="FN10" s="1">
+      <c r="FN10" s="65">
         <f t="shared" si="32"/>
         <v>3.5</v>
       </c>
-      <c r="FO10" s="10">
-        <v>3</v>
-      </c>
-      <c r="FP10" s="1">
+      <c r="FO10" s="62">
+        <v>3</v>
+      </c>
+      <c r="FP10" s="65">
         <f t="shared" si="107"/>
         <v>10.5</v>
       </c>
-      <c r="FQ10" s="6">
+      <c r="FQ10" s="79">
         <v>76.89</v>
       </c>
-      <c r="FR10" s="10" t="str">
+      <c r="FR10" s="62" t="str">
         <f t="shared" si="108"/>
         <v>B+</v>
       </c>
-      <c r="FS10" s="1">
+      <c r="FS10" s="65">
         <f t="shared" si="109"/>
         <v>3.5</v>
       </c>
-      <c r="FT10" s="10">
-        <v>3</v>
-      </c>
-      <c r="FU10" s="1">
+      <c r="FT10" s="62">
+        <v>3</v>
+      </c>
+      <c r="FU10" s="65">
         <f t="shared" si="110"/>
         <v>10.5</v>
       </c>
-      <c r="FV10" s="18">
+      <c r="FV10" s="76">
         <v>78.7</v>
       </c>
-      <c r="FW10" s="10" t="str">
+      <c r="FW10" s="62" t="str">
         <f t="shared" si="111"/>
         <v>B+</v>
       </c>
-      <c r="FX10" s="1">
+      <c r="FX10" s="65">
         <f t="shared" si="33"/>
         <v>3.5</v>
       </c>
-      <c r="FY10" s="10">
-        <v>3</v>
-      </c>
-      <c r="FZ10" s="1">
+      <c r="FY10" s="62">
+        <v>3</v>
+      </c>
+      <c r="FZ10" s="65">
         <f t="shared" si="112"/>
         <v>10.5</v>
       </c>
-      <c r="GA10" s="7">
+      <c r="GA10" s="80">
         <v>71</v>
       </c>
-      <c r="GB10" s="10" t="str">
+      <c r="GB10" s="62" t="str">
         <f t="shared" si="113"/>
         <v>B</v>
       </c>
-      <c r="GC10" s="1">
+      <c r="GC10" s="65">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="GD10" s="10">
-        <v>2</v>
-      </c>
-      <c r="GE10" s="1">
+      <c r="GD10" s="62">
+        <v>2</v>
+      </c>
+      <c r="GE10" s="65">
         <f t="shared" si="114"/>
         <v>6</v>
       </c>
-      <c r="GF10" s="5">
+      <c r="GF10" s="77">
         <v>81.2</v>
       </c>
-      <c r="GG10" s="10" t="str">
+      <c r="GG10" s="62" t="str">
         <f t="shared" si="115"/>
         <v>A</v>
       </c>
-      <c r="GH10" s="1">
+      <c r="GH10" s="65">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="GI10" s="10">
-        <v>3</v>
-      </c>
-      <c r="GJ10" s="1">
+      <c r="GI10" s="62">
+        <v>3</v>
+      </c>
+      <c r="GJ10" s="65">
         <f t="shared" si="116"/>
         <v>12</v>
       </c>
-      <c r="GK10" s="5">
+      <c r="GK10" s="77">
         <v>75.2</v>
       </c>
-      <c r="GL10" s="10" t="str">
+      <c r="GL10" s="62" t="str">
         <f t="shared" si="117"/>
         <v>B+</v>
       </c>
-      <c r="GM10" s="1">
+      <c r="GM10" s="65">
         <f t="shared" si="36"/>
         <v>3.5</v>
       </c>
-      <c r="GN10" s="10">
-        <v>2</v>
-      </c>
-      <c r="GO10" s="1">
+      <c r="GN10" s="62">
+        <v>2</v>
+      </c>
+      <c r="GO10" s="65">
         <f t="shared" si="118"/>
         <v>7</v>
       </c>
-      <c r="GP10" s="19">
+      <c r="GP10" s="73">
         <v>75</v>
       </c>
-      <c r="GQ10" s="10" t="str">
+      <c r="GQ10" s="62" t="str">
         <f t="shared" si="119"/>
         <v>B+</v>
       </c>
-      <c r="GR10" s="1">
+      <c r="GR10" s="65">
         <f t="shared" si="37"/>
         <v>3.5</v>
       </c>
-      <c r="GS10" s="10">
-        <v>3</v>
-      </c>
-      <c r="GT10" s="1">
+      <c r="GS10" s="62">
+        <v>3</v>
+      </c>
+      <c r="GT10" s="65">
         <f t="shared" si="120"/>
         <v>10.5</v>
       </c>
-      <c r="GU10" s="16">
+      <c r="GU10" s="74">
         <v>74.599999999999994</v>
       </c>
-      <c r="GV10" s="10" t="str">
+      <c r="GV10" s="62" t="str">
         <f t="shared" si="121"/>
         <v>B</v>
       </c>
-      <c r="GW10" s="1">
+      <c r="GW10" s="65">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="GX10" s="10">
-        <v>4</v>
-      </c>
-      <c r="GY10" s="1">
+      <c r="GX10" s="62">
+        <v>4</v>
+      </c>
+      <c r="GY10" s="65">
         <f t="shared" si="122"/>
         <v>12</v>
       </c>
-      <c r="GZ10" s="7">
+      <c r="GZ10" s="80">
         <v>75.5</v>
       </c>
-      <c r="HA10" s="10" t="str">
+      <c r="HA10" s="62" t="str">
         <f t="shared" si="123"/>
         <v>B+</v>
       </c>
-      <c r="HB10" s="1">
+      <c r="HB10" s="65">
         <f t="shared" si="124"/>
         <v>3.5</v>
       </c>
-      <c r="HC10" s="10">
-        <v>4</v>
-      </c>
-      <c r="HD10" s="1">
+      <c r="HC10" s="62">
+        <v>4</v>
+      </c>
+      <c r="HD10" s="65">
         <f t="shared" si="125"/>
         <v>14</v>
       </c>
-      <c r="HE10" s="6">
+      <c r="HE10" s="79">
         <v>75.074999999999989</v>
       </c>
-      <c r="HF10" s="10" t="str">
+      <c r="HF10" s="62" t="str">
         <f t="shared" si="126"/>
         <v>B+</v>
       </c>
-      <c r="HG10" s="1">
+      <c r="HG10" s="65">
         <f t="shared" si="39"/>
         <v>3.5</v>
       </c>
-      <c r="HH10" s="10">
-        <v>2</v>
-      </c>
-      <c r="HI10" s="1">
+      <c r="HH10" s="62">
+        <v>2</v>
+      </c>
+      <c r="HI10" s="65">
         <f t="shared" si="127"/>
         <v>7</v>
       </c>
-      <c r="HJ10" s="18">
+      <c r="HJ10" s="76">
         <v>77.416666666666671</v>
       </c>
-      <c r="HK10" s="10" t="str">
+      <c r="HK10" s="62" t="str">
         <f t="shared" si="128"/>
         <v>B+</v>
       </c>
-      <c r="HL10" s="1">
+      <c r="HL10" s="65">
         <f t="shared" si="40"/>
         <v>3.5</v>
       </c>
-      <c r="HM10" s="10">
-        <v>3</v>
-      </c>
-      <c r="HN10" s="1">
+      <c r="HM10" s="62">
+        <v>3</v>
+      </c>
+      <c r="HN10" s="65">
         <f t="shared" si="129"/>
         <v>10.5</v>
       </c>
-      <c r="HO10" s="12">
+      <c r="HO10" s="68">
         <v>74.525000000000006</v>
       </c>
-      <c r="HP10" s="10" t="str">
+      <c r="HP10" s="62" t="str">
         <f t="shared" si="130"/>
         <v>B</v>
       </c>
-      <c r="HQ10" s="1">
+      <c r="HQ10" s="65">
         <f t="shared" si="41"/>
         <v>3</v>
       </c>
-      <c r="HR10" s="10">
-        <v>3</v>
-      </c>
-      <c r="HS10" s="1">
+      <c r="HR10" s="62">
+        <v>3</v>
+      </c>
+      <c r="HS10" s="65">
         <f t="shared" si="131"/>
         <v>9</v>
       </c>
-      <c r="HT10" s="10">
+      <c r="HT10" s="62">
         <v>82</v>
       </c>
-      <c r="HU10" s="10" t="str">
+      <c r="HU10" s="62" t="str">
         <f t="shared" si="132"/>
         <v>A</v>
       </c>
-      <c r="HV10" s="1">
+      <c r="HV10" s="65">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
-      <c r="HW10" s="10">
-        <v>4</v>
-      </c>
-      <c r="HX10" s="1">
+      <c r="HW10" s="62">
+        <v>4</v>
+      </c>
+      <c r="HX10" s="65">
         <f t="shared" si="134"/>
         <v>16</v>
       </c>
-      <c r="HY10" s="16">
+      <c r="HY10" s="74">
         <v>81.95</v>
       </c>
-      <c r="HZ10" s="10" t="str">
+      <c r="HZ10" s="62" t="str">
         <f t="shared" si="135"/>
         <v>A</v>
       </c>
-      <c r="IA10" s="1">
+      <c r="IA10" s="65">
         <f t="shared" si="136"/>
         <v>4</v>
       </c>
-      <c r="IB10" s="10">
-        <v>2</v>
-      </c>
-      <c r="IC10" s="1">
+      <c r="IB10" s="62">
+        <v>2</v>
+      </c>
+      <c r="IC10" s="65">
         <f t="shared" si="137"/>
         <v>8</v>
       </c>
-      <c r="ID10" s="7">
+      <c r="ID10" s="80">
         <v>75.38</v>
       </c>
-      <c r="IE10" s="10" t="str">
+      <c r="IE10" s="62" t="str">
         <f t="shared" si="138"/>
         <v>B+</v>
       </c>
-      <c r="IF10" s="1">
+      <c r="IF10" s="65">
         <f t="shared" si="139"/>
         <v>3.5</v>
       </c>
-      <c r="IG10" s="10">
-        <v>3</v>
-      </c>
-      <c r="IH10" s="1">
+      <c r="IG10" s="62">
+        <v>3</v>
+      </c>
+      <c r="IH10" s="65">
         <f t="shared" si="140"/>
         <v>10.5</v>
       </c>
-      <c r="II10" s="6">
+      <c r="II10" s="79">
         <v>82</v>
       </c>
-      <c r="IJ10" s="10" t="str">
+      <c r="IJ10" s="62" t="str">
         <f t="shared" si="141"/>
         <v>A</v>
       </c>
-      <c r="IK10" s="1">
+      <c r="IK10" s="65">
         <f t="shared" si="142"/>
         <v>4</v>
       </c>
-      <c r="IL10" s="10">
-        <v>2</v>
-      </c>
-      <c r="IM10" s="1">
+      <c r="IL10" s="62">
+        <v>2</v>
+      </c>
+      <c r="IM10" s="65">
         <f t="shared" si="143"/>
         <v>8</v>
       </c>
-      <c r="IN10" s="18">
+      <c r="IN10" s="76">
         <v>77.58</v>
       </c>
-      <c r="IO10" s="10" t="str">
+      <c r="IO10" s="62" t="str">
         <f t="shared" si="144"/>
         <v>B+</v>
       </c>
-      <c r="IP10" s="1">
+      <c r="IP10" s="65">
         <f t="shared" si="145"/>
         <v>3.5</v>
       </c>
-      <c r="IQ10" s="10">
-        <v>2</v>
-      </c>
-      <c r="IR10" s="1">
+      <c r="IQ10" s="62">
+        <v>2</v>
+      </c>
+      <c r="IR10" s="65">
         <f t="shared" si="146"/>
         <v>7</v>
       </c>
-      <c r="IS10" s="10">
+      <c r="IS10" s="62">
         <v>80</v>
       </c>
-      <c r="IT10" s="10" t="str">
+      <c r="IT10" s="62" t="str">
         <f t="shared" si="147"/>
         <v>A</v>
       </c>
-      <c r="IU10" s="1">
+      <c r="IU10" s="65">
         <f t="shared" si="148"/>
         <v>4</v>
       </c>
-      <c r="IV10" s="10">
-        <v>4</v>
-      </c>
-      <c r="IW10" s="1">
+      <c r="IV10" s="62">
+        <v>4</v>
+      </c>
+      <c r="IW10" s="65">
         <f t="shared" si="149"/>
         <v>16</v>
       </c>
-      <c r="IX10" s="10">
-        <v>0</v>
-      </c>
-      <c r="IY10" s="10" t="str">
+      <c r="IX10" s="62">
+        <v>80.3</v>
+      </c>
+      <c r="IY10" s="62" t="str">
         <f t="shared" si="150"/>
-        <v>E</v>
-      </c>
-      <c r="IZ10" s="1">
+        <v>A</v>
+      </c>
+      <c r="IZ10" s="65">
         <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="JA10" s="10">
-        <v>4</v>
-      </c>
-      <c r="JB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="JA10" s="62">
+        <v>4</v>
+      </c>
+      <c r="JB10" s="65">
         <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="JC10" s="2">
+        <v>16</v>
+      </c>
+      <c r="JC10" s="59">
         <v>76</v>
       </c>
-      <c r="JD10" s="2">
+      <c r="JD10" s="59">
         <v>22</v>
       </c>
-      <c r="JE10" s="2">
+      <c r="JE10" s="59">
         <v>67</v>
       </c>
-      <c r="JF10" s="2">
+      <c r="JF10" s="59">
         <v>19</v>
       </c>
-      <c r="JG10" s="2">
+      <c r="JG10" s="59">
         <v>76.5</v>
       </c>
-      <c r="JH10" s="2">
+      <c r="JH10" s="59">
         <v>21</v>
       </c>
-      <c r="JI10" s="2">
+      <c r="JI10" s="59">
         <v>74</v>
       </c>
-      <c r="JJ10" s="2">
+      <c r="JJ10" s="59">
         <v>21</v>
       </c>
-      <c r="JK10" s="2">
+      <c r="JK10" s="59">
         <v>72.5</v>
       </c>
-      <c r="JL10" s="2">
+      <c r="JL10" s="59">
         <v>21</v>
       </c>
-      <c r="JM10" s="2">
-        <v>63</v>
-      </c>
-      <c r="JN10" s="2">
+      <c r="JM10" s="59">
+        <v>66.5</v>
+      </c>
+      <c r="JN10" s="59">
         <v>19</v>
       </c>
-      <c r="JO10" s="2">
+      <c r="JO10" s="81">
         <v>65.5</v>
       </c>
-      <c r="JP10" s="2">
+      <c r="JP10" s="81">
         <v>17</v>
       </c>
-      <c r="JQ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="JR10" s="2">
-        <v>4</v>
-      </c>
-      <c r="JS10" s="2">
-        <f t="shared" si="153"/>
-        <v>494.5</v>
-      </c>
-      <c r="JT10" s="2">
+      <c r="JQ10" s="82">
+        <f t="shared" ref="JQ10" si="157">JB10</f>
+        <v>16</v>
+      </c>
+      <c r="JR10" s="82">
+        <f t="shared" ref="JR10" si="158">JA10</f>
+        <v>4</v>
+      </c>
+      <c r="JS10" s="59">
+        <f>JC10+JE10+JG10+JI10+JK10+JM10+JO10+JQ10</f>
+        <v>514</v>
+      </c>
+      <c r="JT10" s="59">
         <f t="shared" si="153"/>
         <v>144</v>
       </c>
-      <c r="JU10" s="3">
+      <c r="JU10" s="83">
         <f t="shared" si="154"/>
-        <v>3.4340277777777777</v>
-      </c>
-      <c r="JV10" s="2" t="str">
+        <v>3.5694444444444446</v>
+      </c>
+      <c r="JV10" s="59" t="str">
         <f t="shared" si="155"/>
-        <v>Sangat Memuaskan</v>
-      </c>
-      <c r="JW10" s="2" t="str">
+        <v>Cum Laude</v>
+      </c>
+      <c r="JW10" s="59" t="str">
         <f t="shared" si="156"/>
-        <v>Highly Satisfactory</v>
-      </c>
-      <c r="JX10" s="23" t="s">
+        <v>Excellent</v>
+      </c>
+      <c r="JX10" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="JY10" s="23" t="s">
+      <c r="JY10" s="84" t="s">
         <v>257</v>
       </c>
     </row>
@@ -21374,7 +21469,7 @@
         <v>82.100000000000009</v>
       </c>
       <c r="AR21" s="10" t="str">
-        <f t="shared" ref="AR21:AR35" si="157">IF(AQ21&gt;=80,"A",IF(AQ21&gt;=75,"B+",IF(AQ21&gt;=70,"B",IF(AQ21&gt;=65,"C+",IF(AQ21&gt;=60,"C",IF(AQ21&gt;=55,"D",IF(AQ21&lt;54,"E")))))))</f>
+        <f t="shared" ref="AR21:AR35" si="159">IF(AQ21&gt;=80,"A",IF(AQ21&gt;=75,"B+",IF(AQ21&gt;=70,"B",IF(AQ21&gt;=65,"C+",IF(AQ21&gt;=60,"C",IF(AQ21&gt;=55,"D",IF(AQ21&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="AS21" s="1">
@@ -21385,14 +21480,14 @@
         <v>3</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" ref="AU21:AU35" si="158">AS21*AT21</f>
+        <f t="shared" ref="AU21:AU35" si="160">AS21*AT21</f>
         <v>12</v>
       </c>
       <c r="AV21" s="11">
         <v>70</v>
       </c>
       <c r="AW21" s="10" t="str">
-        <f t="shared" ref="AW21:AW35" si="159">IF(AV21&gt;=80,"A",IF(AV21&gt;=75,"B+",IF(AV21&gt;=70,"B",IF(AV21&gt;=65,"C+",IF(AV21&gt;=60,"C",IF(AV21&gt;=55,"D",IF(AV21&lt;54,"E")))))))</f>
+        <f t="shared" ref="AW21:AW35" si="161">IF(AV21&gt;=80,"A",IF(AV21&gt;=75,"B+",IF(AV21&gt;=70,"B",IF(AV21&gt;=65,"C+",IF(AV21&gt;=60,"C",IF(AV21&gt;=55,"D",IF(AV21&lt;54,"E")))))))</f>
         <v>B</v>
       </c>
       <c r="AX21" s="1">
@@ -21403,14 +21498,14 @@
         <v>2</v>
       </c>
       <c r="AZ21" s="1">
-        <f t="shared" ref="AZ21:AZ35" si="160">AX21*AY21</f>
+        <f t="shared" ref="AZ21:AZ35" si="162">AX21*AY21</f>
         <v>6</v>
       </c>
       <c r="BA21" s="15">
         <v>81.55</v>
       </c>
       <c r="BB21" s="10" t="str">
-        <f t="shared" ref="BB21:BB35" si="161">IF(BA21&gt;=80,"A",IF(BA21&gt;=75,"B+",IF(BA21&gt;=70,"B",IF(BA21&gt;=65,"C+",IF(BA21&gt;=60,"C",IF(BA21&gt;=55,"D",IF(BA21&lt;54,"E")))))))</f>
+        <f t="shared" ref="BB21:BB35" si="163">IF(BA21&gt;=80,"A",IF(BA21&gt;=75,"B+",IF(BA21&gt;=70,"B",IF(BA21&gt;=65,"C+",IF(BA21&gt;=60,"C",IF(BA21&gt;=55,"D",IF(BA21&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="BC21" s="1">
@@ -21421,14 +21516,14 @@
         <v>2</v>
       </c>
       <c r="BE21" s="1">
-        <f t="shared" ref="BE21:BE35" si="162">BC21*BD21</f>
+        <f t="shared" ref="BE21:BE35" si="164">BC21*BD21</f>
         <v>8</v>
       </c>
       <c r="BF21" s="14">
         <v>68.449999999999989</v>
       </c>
       <c r="BG21" s="10" t="str">
-        <f t="shared" ref="BG21:BG35" si="163">IF(BF21&gt;=80,"A",IF(BF21&gt;=75,"B+",IF(BF21&gt;=70,"B",IF(BF21&gt;=65,"C+",IF(BF21&gt;=60,"C",IF(BF21&gt;=55,"D",IF(BF21&lt;54,"E")))))))</f>
+        <f t="shared" ref="BG21:BG35" si="165">IF(BF21&gt;=80,"A",IF(BF21&gt;=75,"B+",IF(BF21&gt;=70,"B",IF(BF21&gt;=65,"C+",IF(BF21&gt;=60,"C",IF(BF21&gt;=55,"D",IF(BF21&lt;54,"E")))))))</f>
         <v>C+</v>
       </c>
       <c r="BH21" s="1">
@@ -21439,14 +21534,14 @@
         <v>3</v>
       </c>
       <c r="BJ21" s="1">
-        <f t="shared" ref="BJ21:BJ35" si="164">BH21*BI21</f>
+        <f t="shared" ref="BJ21:BJ35" si="166">BH21*BI21</f>
         <v>7.5</v>
       </c>
       <c r="BK21" s="14">
         <v>80</v>
       </c>
       <c r="BL21" s="10" t="str">
-        <f t="shared" ref="BL21:BL35" si="165">IF(BK21&gt;=80,"A",IF(BK21&gt;=75,"B+",IF(BK21&gt;=70,"B",IF(BK21&gt;=65,"C+",IF(BK21&gt;=60,"C",IF(BK21&gt;=55,"D",IF(BK21&lt;54,"E")))))))</f>
+        <f t="shared" ref="BL21:BL35" si="167">IF(BK21&gt;=80,"A",IF(BK21&gt;=75,"B+",IF(BK21&gt;=70,"B",IF(BK21&gt;=65,"C+",IF(BK21&gt;=60,"C",IF(BK21&gt;=55,"D",IF(BK21&lt;54,"E")))))))</f>
         <v>A</v>
       </c>
       <c r="BM21" s="1">
@@ -21457,14 +21552,14 @@
         <v>2</v>
       </c>
       <c r="BO21" s="1">
-        <f t="shared" ref="BO21:BO35" si="166">BM21*BN21</f>
+        <f t="shared" ref="BO21:BO35" si="168">BM21*BN21</f>
         <v>8</v>
       </c>
       <c r="BP21" s="12">
         <v>77.150000000000006</v>
       </c>
       <c r="BQ21" s="10" t="str">
-        <f t="shared" ref="BQ21:BQ35" si="167">IF(BP21&gt;=80,"A",IF(BP21&gt;=75,"B+",IF(BP21&gt;=70,"B",IF(BP21&gt;=65,"C+",IF(BP21&gt;=60,"C",IF(BP21&gt;=55,"D",IF(BP21&lt;54,"E")))))))</f>
+        <f t="shared" ref="BQ21:BQ35" si="169">IF(BP21&gt;=80,"A",IF(BP21&gt;=75,"B+",IF(BP21&gt;=70,"B",IF(BP21&gt;=65,"C+",IF(BP21&gt;=60,"C",IF(BP21&gt;=55,"D",IF(BP21&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="BR21" s="1">
@@ -21475,14 +21570,14 @@
         <v>2</v>
       </c>
       <c r="BT21" s="1">
-        <f t="shared" ref="BT21:BT35" si="168">BR21*BS21</f>
+        <f t="shared" ref="BT21:BT35" si="170">BR21*BS21</f>
         <v>7</v>
       </c>
       <c r="BU21" s="12">
         <v>72.650000000000006</v>
       </c>
       <c r="BV21" s="10" t="str">
-        <f t="shared" ref="BV21:BV35" si="169">IF(BU21&gt;=80,"A",IF(BU21&gt;=75,"B+",IF(BU21&gt;=70,"B",IF(BU21&gt;=65,"C+",IF(BU21&gt;=60,"C",IF(BU21&gt;=55,"D",IF(BU21&lt;54,"E")))))))</f>
+        <f t="shared" ref="BV21:BV35" si="171">IF(BU21&gt;=80,"A",IF(BU21&gt;=75,"B+",IF(BU21&gt;=70,"B",IF(BU21&gt;=65,"C+",IF(BU21&gt;=60,"C",IF(BU21&gt;=55,"D",IF(BU21&lt;54,"E")))))))</f>
         <v>B</v>
       </c>
       <c r="BW21" s="1">
@@ -21493,14 +21588,14 @@
         <v>3</v>
       </c>
       <c r="BY21" s="1">
-        <f t="shared" ref="BY21:BY35" si="170">BW21*BX21</f>
+        <f t="shared" ref="BY21:BY35" si="172">BW21*BX21</f>
         <v>9</v>
       </c>
       <c r="BZ21" s="15">
         <v>75.349999999999994</v>
       </c>
       <c r="CA21" s="10" t="str">
-        <f t="shared" ref="CA21:CA35" si="171">IF(BZ21&gt;=80,"A",IF(BZ21&gt;=75,"B+",IF(BZ21&gt;=70,"B",IF(BZ21&gt;=65,"C+",IF(BZ21&gt;=60,"C",IF(BZ21&gt;=55,"D",IF(BZ21&lt;54,"E")))))))</f>
+        <f t="shared" ref="CA21:CA35" si="173">IF(BZ21&gt;=80,"A",IF(BZ21&gt;=75,"B+",IF(BZ21&gt;=70,"B",IF(BZ21&gt;=65,"C+",IF(BZ21&gt;=60,"C",IF(BZ21&gt;=55,"D",IF(BZ21&lt;54,"E")))))))</f>
         <v>B+</v>
       </c>
       <c r="CB21" s="1">
@@ -21511,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="CD21" s="1">
-        <f t="shared" ref="CD21:CD35" si="172">CB21*CC21</f>
+        <f t="shared" ref="CD21:CD35" si="174">CB21*CC21</f>
         <v>7</v>
       </c>
       <c r="CE21" s="19">
@@ -22248,7 +22343,7 @@
         <v>152111031</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>175</v>
@@ -22368,7 +22463,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="AR22" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS22" s="1">
@@ -22379,14 +22474,14 @@
         <v>3</v>
       </c>
       <c r="AU22" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV22" s="11">
         <v>70</v>
       </c>
       <c r="AW22" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX22" s="1">
@@ -22397,14 +22492,14 @@
         <v>2</v>
       </c>
       <c r="AZ22" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA22" s="15">
         <v>80.95</v>
       </c>
       <c r="BB22" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC22" s="1">
@@ -22415,14 +22510,14 @@
         <v>2</v>
       </c>
       <c r="BE22" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF22" s="14">
         <v>68.449999999999989</v>
       </c>
       <c r="BG22" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>C+</v>
       </c>
       <c r="BH22" s="1">
@@ -22433,14 +22528,14 @@
         <v>3</v>
       </c>
       <c r="BJ22" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>7.5</v>
       </c>
       <c r="BK22" s="14">
         <v>85.5</v>
       </c>
       <c r="BL22" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM22" s="1">
@@ -22451,14 +22546,14 @@
         <v>2</v>
       </c>
       <c r="BO22" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP22" s="12">
         <v>65.650000000000006</v>
       </c>
       <c r="BQ22" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>C+</v>
       </c>
       <c r="BR22" s="1">
@@ -22469,14 +22564,14 @@
         <v>2</v>
       </c>
       <c r="BT22" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>5</v>
       </c>
       <c r="BU22" s="12">
         <v>73.95</v>
       </c>
       <c r="BV22" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW22" s="1">
@@ -22487,14 +22582,14 @@
         <v>3</v>
       </c>
       <c r="BY22" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ22" s="15">
         <v>75.433333333333337</v>
       </c>
       <c r="CA22" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B+</v>
       </c>
       <c r="CB22" s="1">
@@ -22505,7 +22600,7 @@
         <v>2</v>
       </c>
       <c r="CD22" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>7</v>
       </c>
       <c r="CE22" s="19">
@@ -23362,7 +23457,7 @@
         <v>87</v>
       </c>
       <c r="AR23" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS23" s="1">
@@ -23373,14 +23468,14 @@
         <v>3</v>
       </c>
       <c r="AU23" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV23" s="11">
         <v>70</v>
       </c>
       <c r="AW23" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX23" s="1">
@@ -23391,14 +23486,14 @@
         <v>2</v>
       </c>
       <c r="AZ23" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA23" s="15">
         <v>80.55</v>
       </c>
       <c r="BB23" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC23" s="1">
@@ -23409,14 +23504,14 @@
         <v>2</v>
       </c>
       <c r="BE23" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF23" s="21">
         <v>60.7</v>
       </c>
       <c r="BG23" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>C</v>
       </c>
       <c r="BH23" s="1">
@@ -23427,14 +23522,14 @@
         <v>3</v>
       </c>
       <c r="BJ23" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>6</v>
       </c>
       <c r="BK23" s="14">
         <v>85.5</v>
       </c>
       <c r="BL23" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM23" s="1">
@@ -23445,14 +23540,14 @@
         <v>2</v>
       </c>
       <c r="BO23" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP23" s="12">
         <v>71.55</v>
       </c>
       <c r="BQ23" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>B</v>
       </c>
       <c r="BR23" s="1">
@@ -23463,14 +23558,14 @@
         <v>2</v>
       </c>
       <c r="BT23" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>6</v>
       </c>
       <c r="BU23" s="12">
         <v>73.45</v>
       </c>
       <c r="BV23" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW23" s="1">
@@ -23481,14 +23576,14 @@
         <v>3</v>
       </c>
       <c r="BY23" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ23" s="15">
         <v>73.349999999999994</v>
       </c>
       <c r="CA23" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B</v>
       </c>
       <c r="CB23" s="1">
@@ -23499,7 +23594,7 @@
         <v>2</v>
       </c>
       <c r="CD23" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>6</v>
       </c>
       <c r="CE23" s="19">
@@ -24356,7 +24451,7 @@
         <v>88.850000000000009</v>
       </c>
       <c r="AR24" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS24" s="1">
@@ -24367,14 +24462,14 @@
         <v>3</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV24" s="11">
         <v>70</v>
       </c>
       <c r="AW24" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX24" s="1">
@@ -24385,14 +24480,14 @@
         <v>2</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA24" s="15">
         <v>80.150000000000006</v>
       </c>
       <c r="BB24" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC24" s="1">
@@ -24403,14 +24498,14 @@
         <v>2</v>
       </c>
       <c r="BE24" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF24" s="14">
         <v>68.449999999999989</v>
       </c>
       <c r="BG24" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>C+</v>
       </c>
       <c r="BH24" s="1">
@@ -24421,14 +24516,14 @@
         <v>3</v>
       </c>
       <c r="BJ24" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>7.5</v>
       </c>
       <c r="BK24" s="14">
         <v>85.5</v>
       </c>
       <c r="BL24" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM24" s="1">
@@ -24439,14 +24534,14 @@
         <v>2</v>
       </c>
       <c r="BO24" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP24" s="12">
         <v>69.849999999999994</v>
       </c>
       <c r="BQ24" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>C+</v>
       </c>
       <c r="BR24" s="1">
@@ -24457,14 +24552,14 @@
         <v>2</v>
       </c>
       <c r="BT24" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>5</v>
       </c>
       <c r="BU24" s="12">
         <v>77.150000000000006</v>
       </c>
       <c r="BV24" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B+</v>
       </c>
       <c r="BW24" s="1">
@@ -24475,14 +24570,14 @@
         <v>3</v>
       </c>
       <c r="BY24" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>10.5</v>
       </c>
       <c r="BZ24" s="15">
         <v>67.183333333333337</v>
       </c>
       <c r="CA24" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>C+</v>
       </c>
       <c r="CB24" s="1">
@@ -24493,7 +24588,7 @@
         <v>2</v>
       </c>
       <c r="CD24" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>5</v>
       </c>
       <c r="CE24" s="19">
@@ -25219,997 +25314,997 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:285" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
         <v>23</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="59">
         <v>152111036</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="62">
         <v>80.100000000000009</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="10">
-        <v>4</v>
-      </c>
-      <c r="K25" s="10">
-        <v>2</v>
-      </c>
-      <c r="L25" s="10">
+      <c r="J25" s="62">
+        <v>4</v>
+      </c>
+      <c r="K25" s="62">
+        <v>2</v>
+      </c>
+      <c r="L25" s="62">
         <v>8</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="62">
         <v>73.875</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="10">
-        <v>3</v>
-      </c>
-      <c r="P25" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="10">
+      <c r="O25" s="62">
+        <v>3</v>
+      </c>
+      <c r="P25" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="62">
         <v>9</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="62">
         <v>76.11666666666666</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="T25" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="U25" s="10">
-        <v>4</v>
-      </c>
-      <c r="V25" s="10">
+      <c r="T25" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="U25" s="62">
+        <v>4</v>
+      </c>
+      <c r="V25" s="62">
         <v>14</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W25" s="62">
         <v>79.05</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="X25" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Y25" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="Z25" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="10">
+      <c r="Y25" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="Z25" s="62">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="62">
         <v>7</v>
       </c>
-      <c r="AB25" s="10">
+      <c r="AB25" s="62">
         <v>70.45</v>
       </c>
-      <c r="AC25" s="10" t="s">
+      <c r="AC25" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AD25" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE25" s="10">
-        <v>4</v>
-      </c>
-      <c r="AF25" s="10">
+      <c r="AD25" s="62">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="62">
+        <v>4</v>
+      </c>
+      <c r="AF25" s="62">
         <v>12</v>
       </c>
-      <c r="AG25" s="10">
+      <c r="AG25" s="62">
         <v>76.05</v>
       </c>
-      <c r="AH25" s="10" t="s">
+      <c r="AH25" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AI25" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AJ25" s="10">
-        <v>4</v>
-      </c>
-      <c r="AK25" s="10">
+      <c r="AI25" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="AJ25" s="62">
+        <v>4</v>
+      </c>
+      <c r="AK25" s="62">
         <v>14</v>
       </c>
-      <c r="AL25" s="10">
+      <c r="AL25" s="62">
         <v>79.666666666666671</v>
       </c>
-      <c r="AM25" s="10" t="s">
+      <c r="AM25" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AN25" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="AO25" s="10">
-        <v>3</v>
-      </c>
-      <c r="AP25" s="10">
+      <c r="AN25" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="AO25" s="62">
+        <v>3</v>
+      </c>
+      <c r="AP25" s="62">
         <v>10.5</v>
       </c>
-      <c r="AQ25" s="9">
+      <c r="AQ25" s="64">
         <v>83.1</v>
       </c>
-      <c r="AR25" s="10" t="str">
-        <f t="shared" si="157"/>
-        <v>A</v>
-      </c>
-      <c r="AS25" s="1">
+      <c r="AR25" s="62" t="str">
+        <f t="shared" si="159"/>
+        <v>A</v>
+      </c>
+      <c r="AS25" s="65">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AT25" s="10">
-        <v>3</v>
-      </c>
-      <c r="AU25" s="1">
-        <f t="shared" si="158"/>
+      <c r="AT25" s="62">
+        <v>3</v>
+      </c>
+      <c r="AU25" s="65">
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
-      <c r="AV25" s="11">
+      <c r="AV25" s="66">
         <v>70</v>
       </c>
-      <c r="AW25" s="10" t="str">
-        <f t="shared" si="159"/>
+      <c r="AW25" s="62" t="str">
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AX25" s="65">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AY25" s="10">
-        <v>2</v>
-      </c>
-      <c r="AZ25" s="1">
-        <f t="shared" si="160"/>
+      <c r="AY25" s="62">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="65">
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
-      <c r="BA25" s="12">
+      <c r="BA25" s="68">
         <v>80.349999999999994</v>
       </c>
-      <c r="BB25" s="10" t="str">
-        <f t="shared" si="161"/>
-        <v>A</v>
-      </c>
-      <c r="BC25" s="1">
+      <c r="BB25" s="62" t="str">
+        <f t="shared" si="163"/>
+        <v>A</v>
+      </c>
+      <c r="BC25" s="65">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="BD25" s="10">
-        <v>2</v>
-      </c>
-      <c r="BE25" s="1">
-        <f t="shared" si="162"/>
+      <c r="BD25" s="62">
+        <v>2</v>
+      </c>
+      <c r="BE25" s="65">
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
-      <c r="BF25" s="14">
+      <c r="BF25" s="70">
         <v>78.349999999999994</v>
       </c>
-      <c r="BG25" s="10" t="str">
-        <f t="shared" si="163"/>
-        <v>B+</v>
-      </c>
-      <c r="BH25" s="1">
+      <c r="BG25" s="62" t="str">
+        <f t="shared" si="165"/>
+        <v>B+</v>
+      </c>
+      <c r="BH25" s="65">
         <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
-      <c r="BI25" s="10">
-        <v>3</v>
-      </c>
-      <c r="BJ25" s="1">
-        <f t="shared" si="164"/>
+      <c r="BI25" s="62">
+        <v>3</v>
+      </c>
+      <c r="BJ25" s="65">
+        <f t="shared" si="166"/>
         <v>10.5</v>
       </c>
-      <c r="BK25" s="14">
+      <c r="BK25" s="70">
         <v>74.5</v>
       </c>
-      <c r="BL25" s="10" t="str">
-        <f t="shared" si="165"/>
+      <c r="BL25" s="62" t="str">
+        <f t="shared" si="167"/>
         <v>B</v>
       </c>
-      <c r="BM25" s="1">
+      <c r="BM25" s="65">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="BN25" s="10">
-        <v>2</v>
-      </c>
-      <c r="BO25" s="1">
-        <f t="shared" si="166"/>
+      <c r="BN25" s="62">
+        <v>2</v>
+      </c>
+      <c r="BO25" s="65">
+        <f t="shared" si="168"/>
         <v>6</v>
       </c>
-      <c r="BP25" s="12">
+      <c r="BP25" s="68">
         <v>81.449999999999989</v>
       </c>
-      <c r="BQ25" s="10" t="str">
-        <f t="shared" si="167"/>
-        <v>A</v>
-      </c>
-      <c r="BR25" s="1">
+      <c r="BQ25" s="62" t="str">
+        <f t="shared" si="169"/>
+        <v>A</v>
+      </c>
+      <c r="BR25" s="65">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="BS25" s="10">
-        <v>2</v>
-      </c>
-      <c r="BT25" s="1">
-        <f t="shared" si="168"/>
+      <c r="BS25" s="62">
+        <v>2</v>
+      </c>
+      <c r="BT25" s="65">
+        <f t="shared" si="170"/>
         <v>8</v>
       </c>
-      <c r="BU25" s="12">
+      <c r="BU25" s="68">
         <v>74.75</v>
       </c>
-      <c r="BV25" s="10" t="str">
-        <f t="shared" si="169"/>
+      <c r="BV25" s="62" t="str">
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
-      <c r="BW25" s="1">
+      <c r="BW25" s="65">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="BX25" s="10">
-        <v>3</v>
-      </c>
-      <c r="BY25" s="1">
-        <f t="shared" si="170"/>
+      <c r="BX25" s="62">
+        <v>3</v>
+      </c>
+      <c r="BY25" s="65">
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
-      <c r="BZ25" s="15">
+      <c r="BZ25" s="71">
         <v>69.349999999999994</v>
       </c>
-      <c r="CA25" s="10" t="str">
-        <f t="shared" si="171"/>
+      <c r="CA25" s="62" t="str">
+        <f t="shared" si="173"/>
         <v>C+</v>
       </c>
-      <c r="CB25" s="1">
+      <c r="CB25" s="65">
         <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
-      <c r="CC25" s="10">
-        <v>2</v>
-      </c>
-      <c r="CD25" s="1">
-        <f t="shared" si="172"/>
+      <c r="CC25" s="62">
+        <v>2</v>
+      </c>
+      <c r="CD25" s="65">
+        <f t="shared" si="174"/>
         <v>5</v>
       </c>
-      <c r="CE25" s="19">
+      <c r="CE25" s="73">
         <v>79.599999999999994</v>
       </c>
-      <c r="CF25" s="10" t="str">
+      <c r="CF25" s="62" t="str">
         <f t="shared" si="72"/>
         <v>B+</v>
       </c>
-      <c r="CG25" s="1">
+      <c r="CG25" s="65">
         <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
-      <c r="CH25" s="10">
-        <v>4</v>
-      </c>
-      <c r="CI25" s="1">
+      <c r="CH25" s="62">
+        <v>4</v>
+      </c>
+      <c r="CI25" s="65">
         <f t="shared" si="73"/>
         <v>14</v>
       </c>
-      <c r="CJ25" s="19">
+      <c r="CJ25" s="73">
         <v>78.5</v>
       </c>
-      <c r="CK25" s="10" t="str">
+      <c r="CK25" s="62" t="str">
         <f t="shared" si="74"/>
         <v>B+</v>
       </c>
-      <c r="CL25" s="1">
+      <c r="CL25" s="65">
         <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
-      <c r="CM25" s="10">
-        <v>4</v>
-      </c>
-      <c r="CN25" s="1">
+      <c r="CM25" s="62">
+        <v>4</v>
+      </c>
+      <c r="CN25" s="65">
         <f t="shared" si="75"/>
         <v>14</v>
       </c>
-      <c r="CO25" s="19">
+      <c r="CO25" s="73">
         <v>79.224999999999994</v>
       </c>
-      <c r="CP25" s="10" t="str">
+      <c r="CP25" s="62" t="str">
         <f t="shared" si="76"/>
         <v>B+</v>
       </c>
-      <c r="CQ25" s="1">
+      <c r="CQ25" s="65">
         <f t="shared" si="17"/>
         <v>3.5</v>
       </c>
-      <c r="CR25" s="10">
-        <v>3</v>
-      </c>
-      <c r="CS25" s="1">
+      <c r="CR25" s="62">
+        <v>3</v>
+      </c>
+      <c r="CS25" s="65">
         <f t="shared" si="77"/>
         <v>10.5</v>
       </c>
-      <c r="CT25" s="17">
+      <c r="CT25" s="75">
         <v>80.488285714285723</v>
       </c>
-      <c r="CU25" s="10" t="str">
+      <c r="CU25" s="62" t="str">
         <f t="shared" si="78"/>
         <v>A</v>
       </c>
-      <c r="CV25" s="1">
+      <c r="CV25" s="65">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="CW25" s="10">
-        <v>2</v>
-      </c>
-      <c r="CX25" s="1">
+      <c r="CW25" s="62">
+        <v>2</v>
+      </c>
+      <c r="CX25" s="65">
         <f t="shared" si="79"/>
         <v>8</v>
       </c>
-      <c r="CY25" s="18">
+      <c r="CY25" s="76">
         <v>81.625</v>
       </c>
-      <c r="CZ25" s="10" t="str">
+      <c r="CZ25" s="62" t="str">
         <f t="shared" si="80"/>
         <v>A</v>
       </c>
-      <c r="DA25" s="1">
+      <c r="DA25" s="65">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="DB25" s="10">
-        <v>2</v>
-      </c>
-      <c r="DC25" s="1">
+      <c r="DB25" s="62">
+        <v>2</v>
+      </c>
+      <c r="DC25" s="65">
         <f t="shared" si="81"/>
         <v>8</v>
       </c>
-      <c r="DD25" s="19">
+      <c r="DD25" s="73">
         <v>83.1</v>
       </c>
-      <c r="DE25" s="10" t="str">
+      <c r="DE25" s="62" t="str">
         <f t="shared" si="82"/>
         <v>A</v>
       </c>
-      <c r="DF25" s="1">
+      <c r="DF25" s="65">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="DG25" s="10">
-        <v>2</v>
-      </c>
-      <c r="DH25" s="1">
+      <c r="DG25" s="62">
+        <v>2</v>
+      </c>
+      <c r="DH25" s="65">
         <f t="shared" si="83"/>
         <v>8</v>
       </c>
-      <c r="DI25" s="5">
+      <c r="DI25" s="77">
         <v>79.25</v>
       </c>
-      <c r="DJ25" s="10" t="str">
+      <c r="DJ25" s="62" t="str">
         <f t="shared" si="84"/>
         <v>B+</v>
       </c>
-      <c r="DK25" s="1">
+      <c r="DK25" s="65">
         <f t="shared" si="21"/>
         <v>3.5</v>
       </c>
-      <c r="DL25" s="10">
-        <v>2</v>
-      </c>
-      <c r="DM25" s="1">
+      <c r="DL25" s="62">
+        <v>2</v>
+      </c>
+      <c r="DM25" s="65">
         <f t="shared" si="85"/>
         <v>7</v>
       </c>
-      <c r="DN25" s="20">
+      <c r="DN25" s="78">
         <v>78</v>
       </c>
-      <c r="DO25" s="10" t="str">
+      <c r="DO25" s="62" t="str">
         <f t="shared" si="86"/>
         <v>B+</v>
       </c>
-      <c r="DP25" s="1">
+      <c r="DP25" s="65">
         <f t="shared" si="22"/>
         <v>3.5</v>
       </c>
-      <c r="DQ25" s="10">
-        <v>2</v>
-      </c>
-      <c r="DR25" s="1">
+      <c r="DQ25" s="62">
+        <v>2</v>
+      </c>
+      <c r="DR25" s="65">
         <f t="shared" si="87"/>
         <v>7</v>
       </c>
-      <c r="DS25" s="19">
+      <c r="DS25" s="73">
         <v>84.4</v>
       </c>
-      <c r="DT25" s="10" t="str">
+      <c r="DT25" s="62" t="str">
         <f t="shared" si="88"/>
         <v>A</v>
       </c>
-      <c r="DU25" s="1">
+      <c r="DU25" s="65">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="DV25" s="10">
-        <v>4</v>
-      </c>
-      <c r="DW25" s="1">
+      <c r="DV25" s="62">
+        <v>4</v>
+      </c>
+      <c r="DW25" s="65">
         <f t="shared" si="89"/>
         <v>16</v>
       </c>
-      <c r="DX25" s="19">
+      <c r="DX25" s="73">
         <v>78.7</v>
       </c>
-      <c r="DY25" s="10" t="str">
+      <c r="DY25" s="62" t="str">
         <f t="shared" si="90"/>
         <v>B+</v>
       </c>
-      <c r="DZ25" s="1">
+      <c r="DZ25" s="65">
         <f t="shared" si="24"/>
         <v>3.5</v>
       </c>
-      <c r="EA25" s="10">
-        <v>3</v>
-      </c>
-      <c r="EB25" s="1">
+      <c r="EA25" s="62">
+        <v>3</v>
+      </c>
+      <c r="EB25" s="65">
         <f t="shared" si="91"/>
         <v>10.5</v>
       </c>
-      <c r="EC25" s="19">
+      <c r="EC25" s="73">
         <v>80.55</v>
       </c>
-      <c r="ED25" s="10" t="str">
+      <c r="ED25" s="62" t="str">
         <f t="shared" si="92"/>
         <v>A</v>
       </c>
-      <c r="EE25" s="1">
+      <c r="EE25" s="65">
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="EF25" s="10">
-        <v>3</v>
-      </c>
-      <c r="EG25" s="1">
+      <c r="EF25" s="62">
+        <v>3</v>
+      </c>
+      <c r="EG25" s="65">
         <f t="shared" si="93"/>
         <v>12</v>
       </c>
-      <c r="EH25" s="6">
+      <c r="EH25" s="79">
         <v>80.2</v>
       </c>
-      <c r="EI25" s="10" t="str">
+      <c r="EI25" s="62" t="str">
         <f t="shared" si="94"/>
         <v>A</v>
       </c>
-      <c r="EJ25" s="1">
+      <c r="EJ25" s="65">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="EK25" s="10">
-        <v>3</v>
-      </c>
-      <c r="EL25" s="1">
+      <c r="EK25" s="62">
+        <v>3</v>
+      </c>
+      <c r="EL25" s="65">
         <f t="shared" si="95"/>
         <v>12</v>
       </c>
-      <c r="EM25" s="18">
+      <c r="EM25" s="76">
         <v>81.941911111111111</v>
       </c>
-      <c r="EN25" s="10" t="str">
+      <c r="EN25" s="62" t="str">
         <f t="shared" si="96"/>
         <v>A</v>
       </c>
-      <c r="EO25" s="1">
+      <c r="EO25" s="65">
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
-      <c r="EP25" s="10">
-        <v>3</v>
-      </c>
-      <c r="EQ25" s="1">
+      <c r="EP25" s="62">
+        <v>3</v>
+      </c>
+      <c r="EQ25" s="65">
         <f t="shared" si="97"/>
         <v>12</v>
       </c>
-      <c r="ER25" s="7">
+      <c r="ER25" s="80">
         <v>80</v>
       </c>
-      <c r="ES25" s="10" t="str">
+      <c r="ES25" s="62" t="str">
         <f t="shared" si="98"/>
         <v>A</v>
       </c>
-      <c r="ET25" s="1">
+      <c r="ET25" s="65">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="EU25" s="10">
-        <v>2</v>
-      </c>
-      <c r="EV25" s="1">
+      <c r="EU25" s="62">
+        <v>2</v>
+      </c>
+      <c r="EV25" s="65">
         <f t="shared" si="99"/>
         <v>8</v>
       </c>
-      <c r="EW25" s="5">
+      <c r="EW25" s="77">
         <v>80.2</v>
       </c>
-      <c r="EX25" s="10" t="str">
+      <c r="EX25" s="62" t="str">
         <f t="shared" si="100"/>
         <v>A</v>
       </c>
-      <c r="EY25" s="1">
+      <c r="EY25" s="65">
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="EZ25" s="10">
-        <v>3</v>
-      </c>
-      <c r="FA25" s="1">
+      <c r="EZ25" s="62">
+        <v>3</v>
+      </c>
+      <c r="FA25" s="65">
         <f t="shared" si="101"/>
         <v>12</v>
       </c>
-      <c r="FB25" s="19">
+      <c r="FB25" s="73">
         <v>76</v>
       </c>
-      <c r="FC25" s="10" t="str">
+      <c r="FC25" s="62" t="str">
         <f t="shared" si="102"/>
         <v>B+</v>
       </c>
-      <c r="FD25" s="1">
+      <c r="FD25" s="65">
         <f t="shared" si="30"/>
         <v>3.5</v>
       </c>
-      <c r="FE25" s="10">
-        <v>2</v>
-      </c>
-      <c r="FF25" s="1">
+      <c r="FE25" s="62">
+        <v>2</v>
+      </c>
+      <c r="FF25" s="65">
         <f t="shared" si="103"/>
         <v>7</v>
       </c>
-      <c r="FG25" s="19">
+      <c r="FG25" s="73">
         <v>77</v>
       </c>
-      <c r="FH25" s="10" t="str">
+      <c r="FH25" s="62" t="str">
         <f t="shared" si="104"/>
         <v>B+</v>
       </c>
-      <c r="FI25" s="1">
+      <c r="FI25" s="65">
         <f t="shared" si="31"/>
         <v>3.5</v>
       </c>
-      <c r="FJ25" s="10">
-        <v>3</v>
-      </c>
-      <c r="FK25" s="1">
+      <c r="FJ25" s="62">
+        <v>3</v>
+      </c>
+      <c r="FK25" s="65">
         <f t="shared" si="105"/>
         <v>10.5</v>
       </c>
-      <c r="FL25" s="19">
+      <c r="FL25" s="73">
         <v>80.26666666666668</v>
       </c>
-      <c r="FM25" s="10" t="str">
+      <c r="FM25" s="62" t="str">
         <f t="shared" si="106"/>
         <v>A</v>
       </c>
-      <c r="FN25" s="1">
+      <c r="FN25" s="65">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="FO25" s="10">
-        <v>3</v>
-      </c>
-      <c r="FP25" s="1">
+      <c r="FO25" s="62">
+        <v>3</v>
+      </c>
+      <c r="FP25" s="65">
         <f t="shared" si="107"/>
         <v>12</v>
       </c>
-      <c r="FQ25" s="6">
+      <c r="FQ25" s="79">
         <v>76.849999999999994</v>
       </c>
-      <c r="FR25" s="10" t="str">
+      <c r="FR25" s="62" t="str">
         <f t="shared" si="108"/>
         <v>B+</v>
       </c>
-      <c r="FS25" s="1">
+      <c r="FS25" s="65">
         <f t="shared" si="109"/>
         <v>3.5</v>
       </c>
-      <c r="FT25" s="10">
-        <v>3</v>
-      </c>
-      <c r="FU25" s="1">
+      <c r="FT25" s="62">
+        <v>3</v>
+      </c>
+      <c r="FU25" s="65">
         <f t="shared" si="110"/>
         <v>10.5</v>
       </c>
-      <c r="FV25" s="18">
+      <c r="FV25" s="76">
         <v>77.900000000000006</v>
       </c>
-      <c r="FW25" s="10" t="str">
+      <c r="FW25" s="62" t="str">
         <f t="shared" si="111"/>
         <v>B+</v>
       </c>
-      <c r="FX25" s="1">
+      <c r="FX25" s="65">
         <f t="shared" si="33"/>
         <v>3.5</v>
       </c>
-      <c r="FY25" s="10">
-        <v>3</v>
-      </c>
-      <c r="FZ25" s="1">
+      <c r="FY25" s="62">
+        <v>3</v>
+      </c>
+      <c r="FZ25" s="65">
         <f t="shared" si="112"/>
         <v>10.5</v>
       </c>
-      <c r="GA25" s="7">
+      <c r="GA25" s="80">
         <v>75</v>
       </c>
-      <c r="GB25" s="10" t="str">
+      <c r="GB25" s="62" t="str">
         <f t="shared" si="113"/>
         <v>B+</v>
       </c>
-      <c r="GC25" s="1">
+      <c r="GC25" s="65">
         <f t="shared" si="34"/>
         <v>3.5</v>
       </c>
-      <c r="GD25" s="10">
-        <v>2</v>
-      </c>
-      <c r="GE25" s="1">
+      <c r="GD25" s="62">
+        <v>2</v>
+      </c>
+      <c r="GE25" s="65">
         <f t="shared" si="114"/>
         <v>7</v>
       </c>
-      <c r="GF25" s="5">
+      <c r="GF25" s="77">
         <v>82</v>
       </c>
-      <c r="GG25" s="10" t="str">
+      <c r="GG25" s="62" t="str">
         <f t="shared" si="115"/>
         <v>A</v>
       </c>
-      <c r="GH25" s="1">
+      <c r="GH25" s="65">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="GI25" s="10">
-        <v>3</v>
-      </c>
-      <c r="GJ25" s="1">
+      <c r="GI25" s="62">
+        <v>3</v>
+      </c>
+      <c r="GJ25" s="65">
         <f t="shared" si="116"/>
         <v>12</v>
       </c>
-      <c r="GK25" s="5">
+      <c r="GK25" s="77">
         <v>73.099999999999994</v>
       </c>
-      <c r="GL25" s="10" t="str">
+      <c r="GL25" s="62" t="str">
         <f t="shared" si="117"/>
         <v>B</v>
       </c>
-      <c r="GM25" s="1">
+      <c r="GM25" s="65">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="GN25" s="10">
-        <v>2</v>
-      </c>
-      <c r="GO25" s="1">
+      <c r="GN25" s="62">
+        <v>2</v>
+      </c>
+      <c r="GO25" s="65">
         <f t="shared" si="118"/>
         <v>6</v>
       </c>
-      <c r="GP25" s="19">
+      <c r="GP25" s="73">
         <v>77.8</v>
       </c>
-      <c r="GQ25" s="10" t="str">
+      <c r="GQ25" s="62" t="str">
         <f t="shared" si="119"/>
         <v>B+</v>
       </c>
-      <c r="GR25" s="1">
+      <c r="GR25" s="65">
         <f t="shared" si="37"/>
         <v>3.5</v>
       </c>
-      <c r="GS25" s="10">
-        <v>3</v>
-      </c>
-      <c r="GT25" s="1">
+      <c r="GS25" s="62">
+        <v>3</v>
+      </c>
+      <c r="GT25" s="65">
         <f t="shared" si="120"/>
         <v>10.5</v>
       </c>
-      <c r="GU25" s="19">
+      <c r="GU25" s="73">
         <v>77.16</v>
       </c>
-      <c r="GV25" s="10" t="str">
+      <c r="GV25" s="62" t="str">
         <f t="shared" si="121"/>
         <v>B+</v>
       </c>
-      <c r="GW25" s="1">
+      <c r="GW25" s="65">
         <f t="shared" si="38"/>
         <v>3.5</v>
       </c>
-      <c r="GX25" s="10">
-        <v>4</v>
-      </c>
-      <c r="GY25" s="1">
+      <c r="GX25" s="62">
+        <v>4</v>
+      </c>
+      <c r="GY25" s="65">
         <f t="shared" si="122"/>
         <v>14</v>
       </c>
-      <c r="GZ25" s="7">
+      <c r="GZ25" s="80">
         <v>74.25</v>
       </c>
-      <c r="HA25" s="10" t="str">
+      <c r="HA25" s="62" t="str">
         <f t="shared" si="123"/>
         <v>B</v>
       </c>
-      <c r="HB25" s="1">
+      <c r="HB25" s="65">
         <f t="shared" si="124"/>
         <v>3</v>
       </c>
-      <c r="HC25" s="10">
-        <v>4</v>
-      </c>
-      <c r="HD25" s="1">
+      <c r="HC25" s="62">
+        <v>4</v>
+      </c>
+      <c r="HD25" s="65">
         <f t="shared" si="125"/>
         <v>12</v>
       </c>
-      <c r="HE25" s="6">
+      <c r="HE25" s="79">
         <v>73.699999999999989</v>
       </c>
-      <c r="HF25" s="10" t="str">
+      <c r="HF25" s="62" t="str">
         <f t="shared" si="126"/>
         <v>B</v>
       </c>
-      <c r="HG25" s="1">
+      <c r="HG25" s="65">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="HH25" s="10">
-        <v>2</v>
-      </c>
-      <c r="HI25" s="1">
+      <c r="HH25" s="62">
+        <v>2</v>
+      </c>
+      <c r="HI25" s="65">
         <f t="shared" si="127"/>
         <v>6</v>
       </c>
-      <c r="HJ25" s="18">
+      <c r="HJ25" s="76">
         <v>75.069047619047623</v>
       </c>
-      <c r="HK25" s="10" t="str">
+      <c r="HK25" s="62" t="str">
         <f t="shared" si="128"/>
         <v>B+</v>
       </c>
-      <c r="HL25" s="1">
+      <c r="HL25" s="65">
         <f t="shared" si="40"/>
         <v>3.5</v>
       </c>
-      <c r="HM25" s="10">
-        <v>3</v>
-      </c>
-      <c r="HN25" s="1">
+      <c r="HM25" s="62">
+        <v>3</v>
+      </c>
+      <c r="HN25" s="65">
         <f t="shared" si="129"/>
         <v>10.5</v>
       </c>
-      <c r="HO25" s="12">
+      <c r="HO25" s="68">
         <v>75.025000000000006</v>
       </c>
-      <c r="HP25" s="10" t="str">
+      <c r="HP25" s="62" t="str">
         <f t="shared" si="130"/>
         <v>B+</v>
       </c>
-      <c r="HQ25" s="1">
+      <c r="HQ25" s="65">
         <f t="shared" si="41"/>
         <v>3.5</v>
       </c>
-      <c r="HR25" s="10">
-        <v>3</v>
-      </c>
-      <c r="HS25" s="1">
+      <c r="HR25" s="62">
+        <v>3</v>
+      </c>
+      <c r="HS25" s="65">
         <f t="shared" si="131"/>
         <v>10.5</v>
       </c>
-      <c r="HT25" s="10">
+      <c r="HT25" s="62">
         <v>82.4</v>
       </c>
-      <c r="HU25" s="10" t="str">
+      <c r="HU25" s="62" t="str">
         <f t="shared" si="132"/>
         <v>A</v>
       </c>
-      <c r="HV25" s="1">
+      <c r="HV25" s="65">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
-      <c r="HW25" s="10">
-        <v>4</v>
-      </c>
-      <c r="HX25" s="1">
+      <c r="HW25" s="62">
+        <v>4</v>
+      </c>
+      <c r="HX25" s="65">
         <f t="shared" si="134"/>
         <v>16</v>
       </c>
-      <c r="HY25" s="19">
+      <c r="HY25" s="73">
         <v>81.150000000000006</v>
       </c>
-      <c r="HZ25" s="10" t="str">
+      <c r="HZ25" s="62" t="str">
         <f t="shared" si="135"/>
         <v>A</v>
       </c>
-      <c r="IA25" s="1">
+      <c r="IA25" s="65">
         <f t="shared" si="136"/>
         <v>4</v>
       </c>
-      <c r="IB25" s="10">
-        <v>2</v>
-      </c>
-      <c r="IC25" s="1">
+      <c r="IB25" s="62">
+        <v>2</v>
+      </c>
+      <c r="IC25" s="65">
         <f t="shared" si="137"/>
         <v>8</v>
       </c>
-      <c r="ID25" s="7">
+      <c r="ID25" s="80">
         <v>80</v>
       </c>
-      <c r="IE25" s="10" t="str">
+      <c r="IE25" s="62" t="str">
         <f t="shared" si="138"/>
         <v>A</v>
       </c>
-      <c r="IF25" s="1">
+      <c r="IF25" s="65">
         <f t="shared" si="139"/>
         <v>4</v>
       </c>
-      <c r="IG25" s="10">
-        <v>3</v>
-      </c>
-      <c r="IH25" s="1">
+      <c r="IG25" s="62">
+        <v>3</v>
+      </c>
+      <c r="IH25" s="65">
         <f t="shared" si="140"/>
         <v>12</v>
       </c>
-      <c r="II25" s="6">
+      <c r="II25" s="79">
         <v>82.4</v>
       </c>
-      <c r="IJ25" s="10" t="str">
+      <c r="IJ25" s="62" t="str">
         <f t="shared" si="141"/>
         <v>A</v>
       </c>
-      <c r="IK25" s="1">
+      <c r="IK25" s="65">
         <f t="shared" si="142"/>
         <v>4</v>
       </c>
-      <c r="IL25" s="10">
-        <v>2</v>
-      </c>
-      <c r="IM25" s="1">
+      <c r="IL25" s="62">
+        <v>2</v>
+      </c>
+      <c r="IM25" s="65">
         <f t="shared" si="143"/>
         <v>8</v>
       </c>
-      <c r="IN25" s="18">
+      <c r="IN25" s="76">
         <v>74.930000000000007</v>
       </c>
-      <c r="IO25" s="10" t="str">
+      <c r="IO25" s="62" t="str">
         <f t="shared" si="144"/>
         <v>B</v>
       </c>
-      <c r="IP25" s="1">
+      <c r="IP25" s="65">
         <f t="shared" si="145"/>
         <v>3</v>
       </c>
-      <c r="IQ25" s="10">
-        <v>2</v>
-      </c>
-      <c r="IR25" s="1">
+      <c r="IQ25" s="62">
+        <v>2</v>
+      </c>
+      <c r="IR25" s="65">
         <f t="shared" si="146"/>
         <v>6</v>
       </c>
-      <c r="IS25" s="10">
+      <c r="IS25" s="62">
         <v>77.8</v>
       </c>
-      <c r="IT25" s="10" t="str">
+      <c r="IT25" s="62" t="str">
         <f t="shared" si="147"/>
         <v>B+</v>
       </c>
-      <c r="IU25" s="1">
+      <c r="IU25" s="65">
         <f t="shared" si="148"/>
         <v>3.5</v>
       </c>
-      <c r="IV25" s="10">
-        <v>4</v>
-      </c>
-      <c r="IW25" s="1">
+      <c r="IV25" s="62">
+        <v>4</v>
+      </c>
+      <c r="IW25" s="65">
         <f t="shared" si="149"/>
         <v>14</v>
       </c>
-      <c r="IX25" s="10">
-        <v>39</v>
-      </c>
-      <c r="IY25" s="10" t="str">
+      <c r="IX25" s="62">
+        <v>79</v>
+      </c>
+      <c r="IY25" s="62" t="str">
         <f t="shared" si="150"/>
-        <v>E</v>
-      </c>
-      <c r="IZ25" s="1">
+        <v>B+</v>
+      </c>
+      <c r="IZ25" s="65">
         <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="JA25" s="10">
-        <v>4</v>
-      </c>
-      <c r="JB25" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="JA25" s="62">
+        <v>4</v>
+      </c>
+      <c r="JB25" s="65">
         <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="JC25" s="2">
+        <v>14</v>
+      </c>
+      <c r="JC25" s="59">
         <v>74.5</v>
       </c>
-      <c r="JD25" s="2">
+      <c r="JD25" s="59">
         <v>22</v>
       </c>
-      <c r="JE25" s="2">
+      <c r="JE25" s="59">
         <v>64.5</v>
       </c>
-      <c r="JF25" s="2">
+      <c r="JF25" s="59">
         <v>19</v>
       </c>
-      <c r="JG25" s="2">
+      <c r="JG25" s="59">
         <v>76.5</v>
       </c>
-      <c r="JH25" s="2">
+      <c r="JH25" s="59">
         <v>21</v>
       </c>
-      <c r="JI25" s="2">
+      <c r="JI25" s="59">
         <v>82.5</v>
       </c>
-      <c r="JJ25" s="2">
+      <c r="JJ25" s="59">
         <v>21</v>
       </c>
-      <c r="JK25" s="2">
+      <c r="JK25" s="59">
         <v>75.5</v>
       </c>
-      <c r="JL25" s="2">
+      <c r="JL25" s="59">
         <v>21</v>
       </c>
-      <c r="JM25" s="2">
+      <c r="JM25" s="59">
         <v>63.5</v>
       </c>
-      <c r="JN25" s="2">
+      <c r="JN25" s="59">
         <v>19</v>
       </c>
-      <c r="JO25" s="2">
+      <c r="JO25" s="59">
         <v>64</v>
       </c>
-      <c r="JP25" s="2">
+      <c r="JP25" s="59">
         <v>17</v>
       </c>
-      <c r="JQ25" s="2">
-        <v>0</v>
-      </c>
-      <c r="JR25" s="2">
-        <v>4</v>
-      </c>
-      <c r="JS25" s="2">
+      <c r="JQ25" s="59">
+        <v>14</v>
+      </c>
+      <c r="JR25" s="59">
+        <v>4</v>
+      </c>
+      <c r="JS25" s="59">
         <f t="shared" si="153"/>
-        <v>501</v>
-      </c>
-      <c r="JT25" s="2">
+        <v>515</v>
+      </c>
+      <c r="JT25" s="59">
         <f t="shared" si="153"/>
         <v>144</v>
       </c>
-      <c r="JU25" s="3">
+      <c r="JU25" s="83">
         <f t="shared" si="154"/>
-        <v>3.4791666666666665</v>
-      </c>
-      <c r="JV25" s="2" t="str">
+        <v>3.5763888888888888</v>
+      </c>
+      <c r="JV25" s="59" t="str">
         <f t="shared" si="155"/>
-        <v>Sangat Memuaskan</v>
-      </c>
-      <c r="JW25" s="2" t="str">
+        <v>Cum Laude</v>
+      </c>
+      <c r="JW25" s="59" t="str">
         <f t="shared" si="156"/>
-        <v>Highly Satisfactory</v>
-      </c>
-      <c r="JX25" s="23" t="s">
+        <v>Excellent</v>
+      </c>
+      <c r="JX25" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="JY25" s="23" t="s">
+      <c r="JY25" s="84" t="s">
         <v>272</v>
       </c>
     </row>
@@ -26344,7 +26439,7 @@
         <v>83.85</v>
       </c>
       <c r="AR26" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS26" s="1">
@@ -26355,14 +26450,14 @@
         <v>3</v>
       </c>
       <c r="AU26" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV26" s="11">
         <v>70</v>
       </c>
       <c r="AW26" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX26" s="1">
@@ -26373,14 +26468,14 @@
         <v>2</v>
       </c>
       <c r="AZ26" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA26" s="15">
         <v>80.55</v>
       </c>
       <c r="BB26" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC26" s="1">
@@ -26391,7 +26486,7 @@
         <v>2</v>
       </c>
       <c r="BE26" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF26" s="14">
@@ -26408,14 +26503,14 @@
         <v>3</v>
       </c>
       <c r="BJ26" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>10.5</v>
       </c>
       <c r="BK26" s="14">
         <v>85.5</v>
       </c>
       <c r="BL26" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM26" s="1">
@@ -26426,14 +26521,14 @@
         <v>2</v>
       </c>
       <c r="BO26" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP26" s="12">
         <v>82.85</v>
       </c>
       <c r="BQ26" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>A</v>
       </c>
       <c r="BR26" s="1">
@@ -26444,14 +26539,14 @@
         <v>2</v>
       </c>
       <c r="BT26" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>8</v>
       </c>
       <c r="BU26" s="12">
         <v>71.05</v>
       </c>
       <c r="BV26" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW26" s="1">
@@ -26462,14 +26557,14 @@
         <v>3</v>
       </c>
       <c r="BY26" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ26" s="15">
         <v>72.099999999999994</v>
       </c>
       <c r="CA26" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B</v>
       </c>
       <c r="CB26" s="1">
@@ -26480,7 +26575,7 @@
         <v>2</v>
       </c>
       <c r="CD26" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>6</v>
       </c>
       <c r="CE26" s="19">
@@ -27337,7 +27432,7 @@
         <v>81.25</v>
       </c>
       <c r="AR27" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS27" s="1">
@@ -27348,14 +27443,14 @@
         <v>3</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV27" s="11">
         <v>70</v>
       </c>
       <c r="AW27" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX27" s="1">
@@ -27366,14 +27461,14 @@
         <v>2</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA27" s="15">
         <v>80.349999999999994</v>
       </c>
       <c r="BB27" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC27" s="1">
@@ -27384,14 +27479,14 @@
         <v>2</v>
       </c>
       <c r="BE27" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF27" s="14">
         <v>69</v>
       </c>
       <c r="BG27" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>C+</v>
       </c>
       <c r="BH27" s="1">
@@ -27402,14 +27497,14 @@
         <v>3</v>
       </c>
       <c r="BJ27" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>7.5</v>
       </c>
       <c r="BK27" s="14">
         <v>77.25</v>
       </c>
       <c r="BL27" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>B+</v>
       </c>
       <c r="BM27" s="1">
@@ -27420,14 +27515,14 @@
         <v>2</v>
       </c>
       <c r="BO27" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>7</v>
       </c>
       <c r="BP27" s="12">
         <v>84</v>
       </c>
       <c r="BQ27" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>A</v>
       </c>
       <c r="BR27" s="1">
@@ -27438,14 +27533,14 @@
         <v>2</v>
       </c>
       <c r="BT27" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>8</v>
       </c>
       <c r="BU27" s="12">
         <v>70.7</v>
       </c>
       <c r="BV27" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW27" s="1">
@@ -27456,14 +27551,14 @@
         <v>3</v>
       </c>
       <c r="BY27" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ27" s="15">
         <v>64.683333333333337</v>
       </c>
       <c r="CA27" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>C</v>
       </c>
       <c r="CB27" s="1">
@@ -27474,7 +27569,7 @@
         <v>2</v>
       </c>
       <c r="CD27" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>4</v>
       </c>
       <c r="CE27" s="19">
@@ -28331,7 +28426,7 @@
         <v>81</v>
       </c>
       <c r="AR28" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS28" s="1">
@@ -28342,14 +28437,14 @@
         <v>3</v>
       </c>
       <c r="AU28" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV28" s="11">
         <v>70</v>
       </c>
       <c r="AW28" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX28" s="1">
@@ -28360,14 +28455,14 @@
         <v>2</v>
       </c>
       <c r="AZ28" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA28" s="15">
         <v>80.349999999999994</v>
       </c>
       <c r="BB28" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC28" s="1">
@@ -28378,14 +28473,14 @@
         <v>2</v>
       </c>
       <c r="BE28" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF28" s="14">
         <v>74.5</v>
       </c>
       <c r="BG28" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>B</v>
       </c>
       <c r="BH28" s="1">
@@ -28396,14 +28491,14 @@
         <v>3</v>
       </c>
       <c r="BJ28" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>9</v>
       </c>
       <c r="BK28" s="14">
         <v>80</v>
       </c>
       <c r="BL28" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM28" s="1">
@@ -28414,14 +28509,14 @@
         <v>2</v>
       </c>
       <c r="BO28" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP28" s="12">
         <v>79.349999999999994</v>
       </c>
       <c r="BQ28" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>B+</v>
       </c>
       <c r="BR28" s="1">
@@ -28432,14 +28527,14 @@
         <v>2</v>
       </c>
       <c r="BT28" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>7</v>
       </c>
       <c r="BU28" s="12">
         <v>75.900000000000006</v>
       </c>
       <c r="BV28" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B+</v>
       </c>
       <c r="BW28" s="1">
@@ -28450,14 +28545,14 @@
         <v>3</v>
       </c>
       <c r="BY28" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>10.5</v>
       </c>
       <c r="BZ28" s="15">
         <v>69.349999999999994</v>
       </c>
       <c r="CA28" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>C+</v>
       </c>
       <c r="CB28" s="1">
@@ -28468,7 +28563,7 @@
         <v>2</v>
       </c>
       <c r="CD28" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>5</v>
       </c>
       <c r="CE28" s="19">
@@ -29325,7 +29420,7 @@
         <v>86.1</v>
       </c>
       <c r="AR29" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS29" s="1">
@@ -29336,14 +29431,14 @@
         <v>3</v>
       </c>
       <c r="AU29" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV29" s="11">
         <v>75</v>
       </c>
       <c r="AW29" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B+</v>
       </c>
       <c r="AX29" s="1">
@@ -29354,14 +29449,14 @@
         <v>2</v>
       </c>
       <c r="AZ29" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>7</v>
       </c>
       <c r="BA29" s="15">
         <v>80.150000000000006</v>
       </c>
       <c r="BB29" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC29" s="1">
@@ -29372,14 +29467,14 @@
         <v>2</v>
       </c>
       <c r="BE29" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF29" s="14">
         <v>72.849999999999994</v>
       </c>
       <c r="BG29" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>B</v>
       </c>
       <c r="BH29" s="1">
@@ -29390,14 +29485,14 @@
         <v>3</v>
       </c>
       <c r="BJ29" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>9</v>
       </c>
       <c r="BK29" s="14">
         <v>82.75</v>
       </c>
       <c r="BL29" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM29" s="1">
@@ -29408,14 +29503,14 @@
         <v>2</v>
       </c>
       <c r="BO29" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP29" s="12">
         <v>85.05</v>
       </c>
       <c r="BQ29" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>A</v>
       </c>
       <c r="BR29" s="1">
@@ -29426,14 +29521,14 @@
         <v>2</v>
       </c>
       <c r="BT29" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>8</v>
       </c>
       <c r="BU29" s="12">
         <v>70.8</v>
       </c>
       <c r="BV29" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW29" s="1">
@@ -29444,14 +29539,14 @@
         <v>3</v>
       </c>
       <c r="BY29" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ29" s="15">
         <v>77.016666666666666</v>
       </c>
       <c r="CA29" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B+</v>
       </c>
       <c r="CB29" s="1">
@@ -29462,7 +29557,7 @@
         <v>2</v>
       </c>
       <c r="CD29" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>7</v>
       </c>
       <c r="CE29" s="19">
@@ -30319,7 +30414,7 @@
         <v>74.400000000000006</v>
       </c>
       <c r="AR30" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>B</v>
       </c>
       <c r="AS30" s="1">
@@ -30330,14 +30425,14 @@
         <v>3</v>
       </c>
       <c r="AU30" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>9</v>
       </c>
       <c r="AV30" s="11">
         <v>70</v>
       </c>
       <c r="AW30" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX30" s="1">
@@ -30348,14 +30443,14 @@
         <v>2</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA30" s="15">
         <v>80.349999999999994</v>
       </c>
       <c r="BB30" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC30" s="1">
@@ -30366,14 +30461,14 @@
         <v>2</v>
       </c>
       <c r="BE30" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF30" s="14">
         <v>70.650000000000006</v>
       </c>
       <c r="BG30" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>B</v>
       </c>
       <c r="BH30" s="1">
@@ -30384,14 +30479,14 @@
         <v>3</v>
       </c>
       <c r="BJ30" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>9</v>
       </c>
       <c r="BK30" s="14">
         <v>66.25</v>
       </c>
       <c r="BL30" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>C+</v>
       </c>
       <c r="BM30" s="1">
@@ -30402,14 +30497,14 @@
         <v>2</v>
       </c>
       <c r="BO30" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>5</v>
       </c>
       <c r="BP30" s="12">
         <v>67.55</v>
       </c>
       <c r="BQ30" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>C+</v>
       </c>
       <c r="BR30" s="1">
@@ -30420,14 +30515,14 @@
         <v>2</v>
       </c>
       <c r="BT30" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>5</v>
       </c>
       <c r="BU30" s="12">
         <v>70.05</v>
       </c>
       <c r="BV30" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW30" s="1">
@@ -30438,14 +30533,14 @@
         <v>3</v>
       </c>
       <c r="BY30" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ30" s="15">
         <v>72.433333333333337</v>
       </c>
       <c r="CA30" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B</v>
       </c>
       <c r="CB30" s="1">
@@ -30456,7 +30551,7 @@
         <v>2</v>
       </c>
       <c r="CD30" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>6</v>
       </c>
       <c r="CE30" s="19">
@@ -31313,7 +31408,7 @@
         <v>86.75</v>
       </c>
       <c r="AR31" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS31" s="1">
@@ -31324,14 +31419,14 @@
         <v>3</v>
       </c>
       <c r="AU31" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV31" s="11">
         <v>70</v>
       </c>
       <c r="AW31" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX31" s="1">
@@ -31342,14 +31437,14 @@
         <v>2</v>
       </c>
       <c r="AZ31" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA31" s="15">
         <v>80.55</v>
       </c>
       <c r="BB31" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC31" s="1">
@@ -31360,14 +31455,14 @@
         <v>2</v>
       </c>
       <c r="BE31" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF31" s="14">
         <v>78.349999999999994</v>
       </c>
       <c r="BG31" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>B+</v>
       </c>
       <c r="BH31" s="1">
@@ -31378,14 +31473,14 @@
         <v>3</v>
       </c>
       <c r="BJ31" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>10.5</v>
       </c>
       <c r="BK31" s="14">
         <v>85.5</v>
       </c>
       <c r="BL31" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM31" s="1">
@@ -31396,14 +31491,14 @@
         <v>2</v>
       </c>
       <c r="BO31" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP31" s="12">
         <v>72.55</v>
       </c>
       <c r="BQ31" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>B</v>
       </c>
       <c r="BR31" s="1">
@@ -31414,14 +31509,14 @@
         <v>2</v>
       </c>
       <c r="BT31" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>6</v>
       </c>
       <c r="BU31" s="12">
         <v>72.5</v>
       </c>
       <c r="BV31" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW31" s="1">
@@ -31432,14 +31527,14 @@
         <v>3</v>
       </c>
       <c r="BY31" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ31" s="15">
         <v>66.349999999999994</v>
       </c>
       <c r="CA31" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>C+</v>
       </c>
       <c r="CB31" s="1">
@@ -31450,7 +31545,7 @@
         <v>2</v>
       </c>
       <c r="CD31" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>5</v>
       </c>
       <c r="CE31" s="19">
@@ -32307,7 +32402,7 @@
         <v>85.3</v>
       </c>
       <c r="AR32" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS32" s="1">
@@ -32318,14 +32413,14 @@
         <v>3</v>
       </c>
       <c r="AU32" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV32" s="11">
         <v>70</v>
       </c>
       <c r="AW32" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX32" s="1">
@@ -32336,14 +32431,14 @@
         <v>2</v>
       </c>
       <c r="AZ32" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA32" s="15">
         <v>80.55</v>
       </c>
       <c r="BB32" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC32" s="1">
@@ -32354,7 +32449,7 @@
         <v>2</v>
       </c>
       <c r="BE32" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF32" s="14">
@@ -32371,14 +32466,14 @@
         <v>3</v>
       </c>
       <c r="BJ32" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>10.5</v>
       </c>
       <c r="BK32" s="14">
         <v>74.5</v>
       </c>
       <c r="BL32" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>B</v>
       </c>
       <c r="BM32" s="1">
@@ -32389,14 +32484,14 @@
         <v>2</v>
       </c>
       <c r="BO32" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>6</v>
       </c>
       <c r="BP32" s="12">
         <v>81.95</v>
       </c>
       <c r="BQ32" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>A</v>
       </c>
       <c r="BR32" s="1">
@@ -32407,14 +32502,14 @@
         <v>2</v>
       </c>
       <c r="BT32" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>8</v>
       </c>
       <c r="BU32" s="12">
         <v>74.3</v>
       </c>
       <c r="BV32" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW32" s="1">
@@ -32425,14 +32520,14 @@
         <v>3</v>
       </c>
       <c r="BY32" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ32" s="15">
         <v>74.433333333333337</v>
       </c>
       <c r="CA32" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B</v>
       </c>
       <c r="CB32" s="1">
@@ -32443,7 +32538,7 @@
         <v>2</v>
       </c>
       <c r="CD32" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>6</v>
       </c>
       <c r="CE32" s="19">
@@ -33300,7 +33395,7 @@
         <v>84.2</v>
       </c>
       <c r="AR33" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS33" s="1">
@@ -33311,14 +33406,14 @@
         <v>3</v>
       </c>
       <c r="AU33" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV33" s="12">
         <v>70</v>
       </c>
       <c r="AW33" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX33" s="1">
@@ -33329,14 +33424,14 @@
         <v>2</v>
       </c>
       <c r="AZ33" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA33" s="15">
         <v>80.55</v>
       </c>
       <c r="BB33" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC33" s="1">
@@ -33347,14 +33442,14 @@
         <v>2</v>
       </c>
       <c r="BE33" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF33" s="14">
         <v>60.7</v>
       </c>
       <c r="BG33" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>C</v>
       </c>
       <c r="BH33" s="1">
@@ -33365,14 +33460,14 @@
         <v>3</v>
       </c>
       <c r="BJ33" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>6</v>
       </c>
       <c r="BK33" s="14">
         <v>82.75</v>
       </c>
       <c r="BL33" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>A</v>
       </c>
       <c r="BM33" s="1">
@@ -33383,14 +33478,14 @@
         <v>2</v>
       </c>
       <c r="BO33" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>8</v>
       </c>
       <c r="BP33" s="12">
         <v>83.8</v>
       </c>
       <c r="BQ33" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>A</v>
       </c>
       <c r="BR33" s="1">
@@ -33401,14 +33496,14 @@
         <v>2</v>
       </c>
       <c r="BT33" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>8</v>
       </c>
       <c r="BU33" s="12">
         <v>74.650000000000006</v>
       </c>
       <c r="BV33" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW33" s="1">
@@ -33419,14 +33514,14 @@
         <v>3</v>
       </c>
       <c r="BY33" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ33" s="15">
         <v>74.433333333333337</v>
       </c>
       <c r="CA33" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B</v>
       </c>
       <c r="CB33" s="1">
@@ -33437,7 +33532,7 @@
         <v>2</v>
       </c>
       <c r="CD33" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>6</v>
       </c>
       <c r="CE33" s="19">
@@ -34294,7 +34389,7 @@
         <v>76.400000000000006</v>
       </c>
       <c r="AR34" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>B+</v>
       </c>
       <c r="AS34" s="1">
@@ -34305,14 +34400,14 @@
         <v>3</v>
       </c>
       <c r="AU34" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>10.5</v>
       </c>
       <c r="AV34" s="12">
         <v>70</v>
       </c>
       <c r="AW34" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B</v>
       </c>
       <c r="AX34" s="1">
@@ -34323,14 +34418,14 @@
         <v>2</v>
       </c>
       <c r="AZ34" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>6</v>
       </c>
       <c r="BA34" s="15">
         <v>80.349999999999994</v>
       </c>
       <c r="BB34" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC34" s="1">
@@ -34341,14 +34436,14 @@
         <v>2</v>
       </c>
       <c r="BE34" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF34" s="14">
         <v>72.849999999999994</v>
       </c>
       <c r="BG34" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>B</v>
       </c>
       <c r="BH34" s="1">
@@ -34359,14 +34454,14 @@
         <v>3</v>
       </c>
       <c r="BJ34" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>9</v>
       </c>
       <c r="BK34" s="14">
         <v>77.25</v>
       </c>
       <c r="BL34" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>B+</v>
       </c>
       <c r="BM34" s="1">
@@ -34377,14 +34472,14 @@
         <v>2</v>
       </c>
       <c r="BO34" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>7</v>
       </c>
       <c r="BP34" s="12">
         <v>74.5</v>
       </c>
       <c r="BQ34" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>B</v>
       </c>
       <c r="BR34" s="1">
@@ -34395,14 +34490,14 @@
         <v>2</v>
       </c>
       <c r="BT34" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>6</v>
       </c>
       <c r="BU34" s="12">
         <v>72.3</v>
       </c>
       <c r="BV34" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B</v>
       </c>
       <c r="BW34" s="1">
@@ -34413,14 +34508,14 @@
         <v>3</v>
       </c>
       <c r="BY34" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>9</v>
       </c>
       <c r="BZ34" s="15">
         <v>67.849999999999994</v>
       </c>
       <c r="CA34" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>C+</v>
       </c>
       <c r="CB34" s="1">
@@ -34431,7 +34526,7 @@
         <v>2</v>
       </c>
       <c r="CD34" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>5</v>
       </c>
       <c r="CE34" s="19">
@@ -35288,7 +35383,7 @@
         <v>85.9</v>
       </c>
       <c r="AR35" s="10" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>A</v>
       </c>
       <c r="AS35" s="1">
@@ -35299,14 +35394,14 @@
         <v>3</v>
       </c>
       <c r="AU35" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="AV35" s="12">
         <v>75</v>
       </c>
       <c r="AW35" s="10" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>B+</v>
       </c>
       <c r="AX35" s="1">
@@ -35317,14 +35412,14 @@
         <v>2</v>
       </c>
       <c r="AZ35" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>7</v>
       </c>
       <c r="BA35" s="15">
         <v>81.150000000000006</v>
       </c>
       <c r="BB35" s="10" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>A</v>
       </c>
       <c r="BC35" s="1">
@@ -35335,14 +35430,14 @@
         <v>2</v>
       </c>
       <c r="BE35" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>8</v>
       </c>
       <c r="BF35" s="14">
         <v>78.349999999999994</v>
       </c>
       <c r="BG35" s="10" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>B+</v>
       </c>
       <c r="BH35" s="1">
@@ -35353,14 +35448,14 @@
         <v>3</v>
       </c>
       <c r="BJ35" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>10.5</v>
       </c>
       <c r="BK35" s="14">
         <v>69</v>
       </c>
       <c r="BL35" s="10" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>C+</v>
       </c>
       <c r="BM35" s="1">
@@ -35371,14 +35466,14 @@
         <v>2</v>
       </c>
       <c r="BO35" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>5</v>
       </c>
       <c r="BP35" s="12">
         <v>76.95</v>
       </c>
       <c r="BQ35" s="10" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>B+</v>
       </c>
       <c r="BR35" s="1">
@@ -35389,14 +35484,14 @@
         <v>2</v>
       </c>
       <c r="BT35" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>7</v>
       </c>
       <c r="BU35" s="12">
         <v>79.05</v>
       </c>
       <c r="BV35" s="10" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>B+</v>
       </c>
       <c r="BW35" s="1">
@@ -35407,14 +35502,14 @@
         <v>3</v>
       </c>
       <c r="BY35" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>10.5</v>
       </c>
       <c r="BZ35" s="15">
         <v>72.349999999999994</v>
       </c>
       <c r="CA35" s="10" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>B</v>
       </c>
       <c r="CB35" s="1">
@@ -35425,7 +35520,7 @@
         <v>2</v>
       </c>
       <c r="CD35" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>6</v>
       </c>
       <c r="CE35" s="19">
@@ -36274,22 +36369,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>107</v>
       </c>
       <c r="G1" s="53" t="s">
@@ -36383,30 +36478,30 @@
       <c r="BQ1" s="54"/>
       <c r="BR1" s="54"/>
       <c r="BS1" s="55"/>
-      <c r="BT1" s="45" t="s">
+      <c r="BT1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45" t="s">
+      <c r="BU1" s="46"/>
+      <c r="BV1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45" t="s">
+      <c r="BW1" s="46"/>
+      <c r="BX1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45" t="s">
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45" t="s">
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45" t="s">
+      <c r="CC1" s="46"/>
+      <c r="CD1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="CE1" s="45"/>
+      <c r="CE1" s="46"/>
       <c r="CF1" s="51" t="s">
         <v>116</v>
       </c>
@@ -36419,7 +36514,7 @@
         <v>132</v>
       </c>
       <c r="CK1" s="51"/>
-      <c r="CL1" s="45" t="s">
+      <c r="CL1" s="46" t="s">
         <v>11</v>
       </c>
       <c r="CM1" s="51" t="s">
@@ -36433,12 +36528,12 @@
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
@@ -36688,7 +36783,7 @@
       <c r="CK2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="CL2" s="45"/>
+      <c r="CL2" s="46"/>
       <c r="CM2" s="51"/>
       <c r="CN2" s="51"/>
       <c r="CO2" s="51"/>
